--- a/5_df_output_filtered.xlsx
+++ b/5_df_output_filtered.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z170"/>
+  <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,25 +541,10 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>totalCashFromOperatingActivitiesTTM</t>
+          <t>sharesOutstanding</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>capitalExpendituresTTM</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>capex_more_correct</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>sharesOutstanding</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>marCap</t>
         </is>
@@ -638,18 +623,9 @@
         <v>56</v>
       </c>
       <c r="V2" t="n">
-        <v>-1253083</v>
+        <v>32311900</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>135</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>32311900</v>
-      </c>
-      <c r="Z2" t="n">
         <v>1002000</v>
       </c>
     </row>
@@ -718,18 +694,9 @@
         <v>11</v>
       </c>
       <c r="V3" t="n">
-        <v>58072000</v>
+        <v>914252992</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>914252992</v>
-      </c>
-      <c r="Z3" t="n">
         <v>1368000000</v>
       </c>
     </row>
@@ -806,18 +773,9 @@
         <v>40</v>
       </c>
       <c r="V4" t="n">
-        <v>-1064000</v>
+        <v>173000000</v>
       </c>
       <c r="W4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="X4" t="n">
-        <v>3059</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>173000000</v>
-      </c>
-      <c r="Z4" t="n">
         <v>2163000</v>
       </c>
     </row>
@@ -892,18 +850,9 @@
         <v>69</v>
       </c>
       <c r="V5" t="n">
-        <v>-1026695</v>
+        <v>246890000</v>
       </c>
       <c r="W5" t="n">
-        <v>-5490</v>
-      </c>
-      <c r="X5" t="n">
-        <v>-5490</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>246890000</v>
-      </c>
-      <c r="Z5" t="n">
         <v>3210000</v>
       </c>
     </row>
@@ -978,18 +927,9 @@
         <v>95</v>
       </c>
       <c r="V6" t="n">
-        <v>-84388</v>
+        <v>5866930</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>5866930</v>
-      </c>
-      <c r="Z6" t="n">
         <v>3227000</v>
       </c>
     </row>
@@ -1056,18 +996,9 @@
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>-1114052</v>
+        <v>11458200</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>11458200</v>
-      </c>
-      <c r="Z7" t="n">
         <v>3117000</v>
       </c>
     </row>
@@ -1140,18 +1071,9 @@
         <v>54</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>44573200</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>377084</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>44573200</v>
-      </c>
-      <c r="Z8" t="n">
         <v>126016000</v>
       </c>
     </row>
@@ -1228,18 +1150,9 @@
         <v>37</v>
       </c>
       <c r="V9" t="n">
-        <v>-6125074</v>
+        <v>114014000</v>
       </c>
       <c r="W9" t="n">
-        <v>-10807</v>
-      </c>
-      <c r="X9" t="n">
-        <v>-275868</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>114014000</v>
-      </c>
-      <c r="Z9" t="n">
         <v>33064000</v>
       </c>
     </row>
@@ -1312,18 +1225,9 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1233396</v>
+        <v>1304650</v>
       </c>
       <c r="W10" t="n">
-        <v>-182847</v>
-      </c>
-      <c r="X10" t="n">
-        <v>-182642</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1304650</v>
-      </c>
-      <c r="Z10" t="n">
         <v>2388000</v>
       </c>
     </row>
@@ -1400,18 +1304,9 @@
         <v>27</v>
       </c>
       <c r="V11" t="n">
-        <v>-1926181</v>
+        <v>41997000</v>
       </c>
       <c r="W11" t="n">
-        <v>-9697</v>
-      </c>
-      <c r="X11" t="n">
-        <v>-7978</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>41997000</v>
-      </c>
-      <c r="Z11" t="n">
         <v>25400000</v>
       </c>
     </row>
@@ -1488,18 +1383,9 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>-455000000</v>
+        <v>3719109888</v>
       </c>
       <c r="W12" t="n">
-        <v>-265000000</v>
-      </c>
-      <c r="X12" t="n">
-        <v>-265000000</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>3719109888</v>
-      </c>
-      <c r="Z12" t="n">
         <v>15377000000</v>
       </c>
     </row>
@@ -1578,18 +1464,9 @@
         <v>36</v>
       </c>
       <c r="V13" t="n">
-        <v>114771000</v>
+        <v>51502100</v>
       </c>
       <c r="W13" t="n">
-        <v>-38656000</v>
-      </c>
-      <c r="X13" t="n">
-        <v>-59868770</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>51502100</v>
-      </c>
-      <c r="Z13" t="n">
         <v>203433000</v>
       </c>
     </row>
@@ -1666,18 +1543,9 @@
         <v>28</v>
       </c>
       <c r="V14" t="n">
-        <v>579000</v>
+        <v>7792180</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>-126391</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>7792180</v>
-      </c>
-      <c r="Z14" t="n">
         <v>2026000</v>
       </c>
     </row>
@@ -1754,18 +1622,9 @@
         <v>56</v>
       </c>
       <c r="V15" t="n">
-        <v>-48334996</v>
+        <v>466320992</v>
       </c>
       <c r="W15" t="n">
-        <v>-176000</v>
-      </c>
-      <c r="X15" t="n">
-        <v>-336003</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>466320992</v>
-      </c>
-      <c r="Z15" t="n">
         <v>148451000</v>
       </c>
     </row>
@@ -1840,18 +1699,9 @@
         <v>20</v>
       </c>
       <c r="V16" t="n">
-        <v>-6601000</v>
+        <v>31311200</v>
       </c>
       <c r="W16" t="n">
-        <v>-42000</v>
-      </c>
-      <c r="X16" t="n">
-        <v>-736450</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>31311200</v>
-      </c>
-      <c r="Z16" t="n">
         <v>68885000</v>
       </c>
     </row>
@@ -1918,18 +1768,9 @@
         <v>89</v>
       </c>
       <c r="V17" t="n">
-        <v>-193206</v>
+        <v>8730730</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>8730730</v>
-      </c>
-      <c r="Z17" t="n">
         <v>5238000</v>
       </c>
     </row>
@@ -2004,18 +1845,9 @@
         <v>45</v>
       </c>
       <c r="V18" t="n">
-        <v>-2440182</v>
+        <v>73473104</v>
       </c>
       <c r="W18" t="n">
-        <v>-19359</v>
-      </c>
-      <c r="X18" t="n">
-        <v>-19359</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>73473104</v>
-      </c>
-      <c r="Z18" t="n">
         <v>4776000</v>
       </c>
     </row>
@@ -2092,18 +1924,9 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-6575461</v>
+        <v>15050000</v>
       </c>
       <c r="W19" t="n">
-        <v>-312789</v>
-      </c>
-      <c r="X19" t="n">
-        <v>-309139</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>15050000</v>
-      </c>
-      <c r="Z19" t="n">
         <v>30401000</v>
       </c>
     </row>
@@ -2182,18 +2005,9 @@
         <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>-37183000</v>
+        <v>150108000</v>
       </c>
       <c r="W20" t="n">
-        <v>-934000</v>
-      </c>
-      <c r="X20" t="n">
-        <v>-5314167</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>150108000</v>
-      </c>
-      <c r="Z20" t="n">
         <v>138385000</v>
       </c>
     </row>
@@ -2270,18 +2084,9 @@
         <v>88</v>
       </c>
       <c r="V21" t="n">
-        <v>120232745</v>
+        <v>47500000</v>
       </c>
       <c r="W21" t="n">
-        <v>-18133390</v>
-      </c>
-      <c r="X21" t="n">
-        <v>-10438192</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>47500000</v>
-      </c>
-      <c r="Z21" t="n">
         <v>182400000</v>
       </c>
     </row>
@@ -2358,18 +2163,9 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>142958000</v>
+        <v>165584992</v>
       </c>
       <c r="W22" t="n">
-        <v>-148340000</v>
-      </c>
-      <c r="X22" t="n">
-        <v>-47652967</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>165584992</v>
-      </c>
-      <c r="Z22" t="n">
         <v>294741000</v>
       </c>
     </row>
@@ -2446,18 +2242,9 @@
         <v>58</v>
       </c>
       <c r="V23" t="n">
-        <v>420000000</v>
+        <v>356743008</v>
       </c>
       <c r="W23" t="n">
-        <v>-106000000</v>
-      </c>
-      <c r="X23" t="n">
-        <v>-125540658</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>356743008</v>
-      </c>
-      <c r="Z23" t="n">
         <v>1420000000</v>
       </c>
     </row>
@@ -2536,18 +2323,9 @@
         <v>56</v>
       </c>
       <c r="V24" t="n">
-        <v>-255616</v>
+        <v>3255890</v>
       </c>
       <c r="W24" t="n">
-        <v>-67902</v>
-      </c>
-      <c r="X24" t="n">
-        <v>-67902</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>3255890</v>
-      </c>
-      <c r="Z24" t="n">
         <v>9735000</v>
       </c>
     </row>
@@ -2626,18 +2404,9 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-24696000</v>
+        <v>92817504</v>
       </c>
       <c r="W25" t="n">
-        <v>-3201000</v>
-      </c>
-      <c r="X25" t="n">
-        <v>-8036472</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>92817504</v>
-      </c>
-      <c r="Z25" t="n">
         <v>37582000</v>
       </c>
     </row>
@@ -2716,18 +2485,9 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-12751000</v>
+        <v>10591700</v>
       </c>
       <c r="W26" t="n">
-        <v>-705000</v>
-      </c>
-      <c r="X26" t="n">
-        <v>-738590</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>10591700</v>
-      </c>
-      <c r="Z26" t="n">
         <v>26585000</v>
       </c>
     </row>
@@ -2802,18 +2562,9 @@
         <v>86</v>
       </c>
       <c r="V27" t="n">
-        <v>-770412</v>
+        <v>134688992</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>134688992</v>
-      </c>
-      <c r="Z27" t="n">
         <v>12109000</v>
       </c>
     </row>
@@ -2892,18 +2643,9 @@
         <v>43</v>
       </c>
       <c r="V28" t="n">
-        <v>6312071</v>
+        <v>14920700</v>
       </c>
       <c r="W28" t="n">
-        <v>-137549</v>
-      </c>
-      <c r="X28" t="n">
-        <v>-255537</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>14920700</v>
-      </c>
-      <c r="Z28" t="n">
         <v>41927000</v>
       </c>
     </row>
@@ -2980,18 +2722,9 @@
         <v>58</v>
       </c>
       <c r="V29" t="n">
-        <v>-10341000</v>
+        <v>94420600</v>
       </c>
       <c r="W29" t="n">
-        <v>-597000</v>
-      </c>
-      <c r="X29" t="n">
-        <v>7888051</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>94420600</v>
-      </c>
-      <c r="Z29" t="n">
         <v>128780000</v>
       </c>
     </row>
@@ -3062,18 +2795,9 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>-1938836</v>
+        <v>51472600</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>51472600</v>
-      </c>
-      <c r="Z30" t="n">
         <v>87026000</v>
       </c>
     </row>
@@ -3152,18 +2876,9 @@
         <v>8</v>
       </c>
       <c r="V31" t="n">
-        <v>-129282036</v>
+        <v>393190016</v>
       </c>
       <c r="W31" t="n">
-        <v>-285273</v>
-      </c>
-      <c r="X31" t="n">
-        <v>-3667796</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>393190016</v>
-      </c>
-      <c r="Z31" t="n">
         <v>312586000</v>
       </c>
     </row>
@@ -3240,18 +2955,9 @@
         <v>13</v>
       </c>
       <c r="V32" t="n">
-        <v>2872000</v>
+        <v>8952920</v>
       </c>
       <c r="W32" t="n">
-        <v>-79000</v>
-      </c>
-      <c r="X32" t="n">
-        <v>-84690</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>8952920</v>
-      </c>
-      <c r="Z32" t="n">
         <v>17055000</v>
       </c>
     </row>
@@ -3328,18 +3034,9 @@
         <v>73</v>
       </c>
       <c r="V33" t="n">
-        <v>2609000</v>
+        <v>14447600</v>
       </c>
       <c r="W33" t="n">
-        <v>-572000</v>
-      </c>
-      <c r="X33" t="n">
-        <v>-506992</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>14447600</v>
-      </c>
-      <c r="Z33" t="n">
         <v>11847000</v>
       </c>
     </row>
@@ -3418,18 +3115,9 @@
         <v>19</v>
       </c>
       <c r="V34" t="n">
-        <v>-1015502</v>
+        <v>1850400</v>
       </c>
       <c r="W34" t="n">
-        <v>-3396</v>
-      </c>
-      <c r="X34" t="n">
-        <v>26724</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1850400</v>
-      </c>
-      <c r="Z34" t="n">
         <v>5422000</v>
       </c>
     </row>
@@ -3508,18 +3196,9 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-5005328</v>
+        <v>13402600</v>
       </c>
       <c r="W35" t="n">
-        <v>-1663209</v>
-      </c>
-      <c r="X35" t="n">
-        <v>-17694624</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>13402600</v>
-      </c>
-      <c r="Z35" t="n">
         <v>49054000</v>
       </c>
     </row>
@@ -3590,18 +3269,9 @@
         <v>71</v>
       </c>
       <c r="V36" t="n">
-        <v>-292913</v>
+        <v>393743008</v>
       </c>
       <c r="W36" t="n">
-        <v>-34056</v>
-      </c>
-      <c r="X36" t="n">
-        <v>-34056</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>393743008</v>
-      </c>
-      <c r="Z36" t="n">
         <v>15356000</v>
       </c>
     </row>
@@ -3678,18 +3348,9 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>-2328000</v>
+        <v>70470200</v>
       </c>
       <c r="W37" t="n">
-        <v>-478000</v>
-      </c>
-      <c r="X37" t="n">
-        <v>-478000</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>70470200</v>
-      </c>
-      <c r="Z37" t="n">
         <v>14024000</v>
       </c>
     </row>
@@ -3766,18 +3427,9 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1573000000</v>
+        <v>1613449984</v>
       </c>
       <c r="W38" t="n">
-        <v>-1091000000</v>
-      </c>
-      <c r="X38" t="n">
-        <v>-1077553799</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>1613449984</v>
-      </c>
-      <c r="Z38" t="n">
         <v>6479000000</v>
       </c>
     </row>
@@ -3848,18 +3500,9 @@
         <v>25</v>
       </c>
       <c r="V39" t="n">
-        <v>-1300752</v>
+        <v>863185024</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>863185024</v>
-      </c>
-      <c r="Z39" t="n">
         <v>68623000</v>
       </c>
     </row>
@@ -3938,18 +3581,9 @@
         <v>4</v>
       </c>
       <c r="V40" t="n">
-        <v>34664000</v>
+        <v>30893400</v>
       </c>
       <c r="W40" t="n">
-        <v>-15066000</v>
-      </c>
-      <c r="X40" t="n">
-        <v>-6635126</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>30893400</v>
-      </c>
-      <c r="Z40" t="n">
         <v>139329000</v>
       </c>
     </row>
@@ -4026,18 +3660,9 @@
         <v>67</v>
       </c>
       <c r="V41" t="n">
-        <v>1061000</v>
+        <v>21195400</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>21195400</v>
-      </c>
-      <c r="Z41" t="n">
         <v>69945000</v>
       </c>
     </row>
@@ -4116,18 +3741,9 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>2140000</v>
+        <v>23053000</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>5056</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>23053000</v>
-      </c>
-      <c r="Z42" t="n">
         <v>45875000</v>
       </c>
     </row>
@@ -4204,18 +3820,9 @@
         <v>54</v>
       </c>
       <c r="V43" t="n">
-        <v>-642958</v>
+        <v>59388600</v>
       </c>
       <c r="W43" t="n">
-        <v>-3148</v>
-      </c>
-      <c r="X43" t="n">
-        <v>78495</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>59388600</v>
-      </c>
-      <c r="Z43" t="n">
         <v>13790000</v>
       </c>
     </row>
@@ -4290,18 +3897,9 @@
         <v>42</v>
       </c>
       <c r="V44" t="n">
-        <v>-3529474</v>
+        <v>11260200</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>11260200</v>
-      </c>
-      <c r="Z44" t="n">
         <v>19931000</v>
       </c>
     </row>
@@ -4376,18 +3974,9 @@
         <v>74</v>
       </c>
       <c r="V45" t="n">
-        <v>-5082000</v>
+        <v>111833000</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>7238155</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>111833000</v>
-      </c>
-      <c r="Z45" t="n">
         <v>167750000</v>
       </c>
     </row>
@@ -4458,16 +4047,9 @@
         <v>14</v>
       </c>
       <c r="V46" t="n">
-        <v>-27649679</v>
+        <v>32180500</v>
       </c>
       <c r="W46" t="n">
-        <v>-196522</v>
-      </c>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="n">
-        <v>32180500</v>
-      </c>
-      <c r="Z46" t="n">
         <v>99116000</v>
       </c>
     </row>
@@ -4546,18 +4128,9 @@
         <v>9</v>
       </c>
       <c r="V47" t="n">
-        <v>-4128000</v>
+        <v>9779150</v>
       </c>
       <c r="W47" t="n">
-        <v>-3659000</v>
-      </c>
-      <c r="X47" t="n">
-        <v>-3629205</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>9779150</v>
-      </c>
-      <c r="Z47" t="n">
         <v>26085000</v>
       </c>
     </row>
@@ -4636,18 +4209,9 @@
         <v>16</v>
       </c>
       <c r="V48" t="n">
-        <v>-115574000</v>
+        <v>93512704</v>
       </c>
       <c r="W48" t="n">
-        <v>-18861000</v>
-      </c>
-      <c r="X48" t="n">
-        <v>-17348822</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>93512704</v>
-      </c>
-      <c r="Z48" t="n">
         <v>336646000</v>
       </c>
     </row>
@@ -4708,18 +4272,9 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="n">
-        <v>-200468</v>
+        <v>1209990</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>1209990</v>
-      </c>
-      <c r="Z49" t="n">
         <v>4356000</v>
       </c>
     </row>
@@ -4794,18 +4349,9 @@
         <v>23</v>
       </c>
       <c r="V50" t="n">
-        <v>39654143</v>
+        <v>71153400</v>
       </c>
       <c r="W50" t="n">
-        <v>-14537346</v>
-      </c>
-      <c r="X50" t="n">
-        <v>-11193192</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>71153400</v>
-      </c>
-      <c r="Z50" t="n">
         <v>173614000</v>
       </c>
     </row>
@@ -4884,18 +4430,9 @@
         <v>9</v>
       </c>
       <c r="V51" t="n">
-        <v>-6839000</v>
+        <v>49487500</v>
       </c>
       <c r="W51" t="n">
-        <v>-48000</v>
-      </c>
-      <c r="X51" t="n">
-        <v>-48000</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>49487500</v>
-      </c>
-      <c r="Z51" t="n">
         <v>53941000</v>
       </c>
     </row>
@@ -4972,18 +4509,9 @@
         <v>50</v>
       </c>
       <c r="V52" t="n">
-        <v>-3790000</v>
+        <v>38930800</v>
       </c>
       <c r="W52" t="n">
-        <v>-31000</v>
-      </c>
-      <c r="X52" t="n">
-        <v>1886614</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>38930800</v>
-      </c>
-      <c r="Z52" t="n">
         <v>68129000</v>
       </c>
     </row>
@@ -5060,18 +4588,9 @@
         <v>69</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>2974550016</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" t="n">
-        <v>-34329575</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>2974550016</v>
-      </c>
-      <c r="Z53" t="n">
         <v>9037000000</v>
       </c>
     </row>
@@ -5150,18 +4669,9 @@
         <v>34</v>
       </c>
       <c r="V54" t="n">
-        <v>-17830489</v>
+        <v>52892700</v>
       </c>
       <c r="W54" t="n">
-        <v>-2094309</v>
-      </c>
-      <c r="X54" t="n">
-        <v>-14747601</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>52892700</v>
-      </c>
-      <c r="Z54" t="n">
         <v>177191000</v>
       </c>
     </row>
@@ -5240,18 +4750,9 @@
         <v>9</v>
       </c>
       <c r="V55" t="n">
-        <v>-11760000</v>
+        <v>5073650</v>
       </c>
       <c r="W55" t="n">
-        <v>-1192000</v>
-      </c>
-      <c r="X55" t="n">
-        <v>-6026786</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>5073650</v>
-      </c>
-      <c r="Z55" t="n">
         <v>13486000</v>
       </c>
     </row>
@@ -5326,18 +4827,9 @@
         <v>41</v>
       </c>
       <c r="V56" t="n">
-        <v>-19737022</v>
+        <v>74336000</v>
       </c>
       <c r="W56" t="n">
-        <v>-2173733</v>
-      </c>
-      <c r="X56" t="n">
-        <v>-2173733</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>74336000</v>
-      </c>
-      <c r="Z56" t="n">
         <v>151645000</v>
       </c>
     </row>
@@ -5416,18 +4908,9 @@
         <v>10</v>
       </c>
       <c r="V57" t="n">
-        <v>25420000</v>
+        <v>115391000</v>
       </c>
       <c r="W57" t="n">
-        <v>-1763000</v>
-      </c>
-      <c r="X57" t="n">
-        <v>-1629592</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>115391000</v>
-      </c>
-      <c r="Z57" t="n">
         <v>141931000</v>
       </c>
     </row>
@@ -5506,18 +4989,9 @@
         <v>8</v>
       </c>
       <c r="V58" t="n">
-        <v>-7125862</v>
+        <v>7820460</v>
       </c>
       <c r="W58" t="n">
-        <v>-48875</v>
-      </c>
-      <c r="X58" t="n">
-        <v>-186878</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>7820460</v>
-      </c>
-      <c r="Z58" t="n">
         <v>25573000</v>
       </c>
     </row>
@@ -5594,18 +5068,9 @@
         <v>29</v>
       </c>
       <c r="V59" t="n">
-        <v>-184364</v>
+        <v>28731600</v>
       </c>
       <c r="W59" t="n">
-        <v>-46677</v>
-      </c>
-      <c r="X59" t="n">
-        <v>-50990</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>28731600</v>
-      </c>
-      <c r="Z59" t="n">
         <v>10918000</v>
       </c>
     </row>
@@ -5684,18 +5149,9 @@
         <v>4</v>
       </c>
       <c r="V60" t="n">
-        <v>-1104281</v>
+        <v>9343670</v>
       </c>
       <c r="W60" t="n">
-        <v>-78531</v>
-      </c>
-      <c r="X60" t="n">
-        <v>-36677</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>9343670</v>
-      </c>
-      <c r="Z60" t="n">
         <v>35693000</v>
       </c>
     </row>
@@ -5774,18 +5230,9 @@
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>-2401000</v>
+        <v>5878290</v>
       </c>
       <c r="W61" t="n">
-        <v>-63000</v>
-      </c>
-      <c r="X61" t="n">
-        <v>228040</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>5878290</v>
-      </c>
-      <c r="Z61" t="n">
         <v>7054000</v>
       </c>
     </row>
@@ -5864,18 +5311,9 @@
         <v>11</v>
       </c>
       <c r="V62" t="n">
-        <v>15000</v>
+        <v>113500000</v>
       </c>
       <c r="W62" t="n">
-        <v>-48000</v>
-      </c>
-      <c r="X62" t="n">
-        <v>-7532</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>113500000</v>
-      </c>
-      <c r="Z62" t="n">
         <v>59871000</v>
       </c>
     </row>
@@ -5948,18 +5386,9 @@
         <v>51</v>
       </c>
       <c r="V63" t="n">
-        <v>-4739229</v>
+        <v>20565600</v>
       </c>
       <c r="W63" t="n">
-        <v>-70217</v>
-      </c>
-      <c r="X63" t="n">
-        <v>-1233814</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>20565600</v>
-      </c>
-      <c r="Z63" t="n">
         <v>41337000</v>
       </c>
     </row>
@@ -6038,18 +5467,9 @@
         <v>14</v>
       </c>
       <c r="V64" t="n">
-        <v>-2221000</v>
+        <v>19027700</v>
       </c>
       <c r="W64" t="n">
-        <v>-1489000</v>
-      </c>
-      <c r="X64" t="n">
-        <v>4203304</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>19027700</v>
-      </c>
-      <c r="Z64" t="n">
         <v>61459000</v>
       </c>
     </row>
@@ -6124,18 +5544,9 @@
         <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>77400000</v>
+        <v>2675549952</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
-      </c>
-      <c r="X65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>2675549952</v>
-      </c>
-      <c r="Z65" t="n">
         <v>3037000000</v>
       </c>
     </row>
@@ -6212,18 +5623,9 @@
         <v>20</v>
       </c>
       <c r="V66" t="n">
-        <v>-6161714</v>
+        <v>43058000</v>
       </c>
       <c r="W66" t="n">
-        <v>-88598</v>
-      </c>
-      <c r="X66" t="n">
-        <v>-88598</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>43058000</v>
-      </c>
-      <c r="Z66" t="n">
         <v>15399000</v>
       </c>
     </row>
@@ -6298,18 +5700,9 @@
         <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>-999539</v>
+        <v>1427570048</v>
       </c>
       <c r="W67" t="n">
-        <v>-220339</v>
-      </c>
-      <c r="X67" t="n">
-        <v>-574720</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>1427570048</v>
-      </c>
-      <c r="Z67" t="n">
         <v>5353000000</v>
       </c>
     </row>
@@ -6378,18 +5771,9 @@
       </c>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="n">
-        <v>-1114052</v>
+        <v>11458200</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>11458200</v>
-      </c>
-      <c r="Z68" t="n">
         <v>2567000</v>
       </c>
     </row>
@@ -6468,18 +5852,9 @@
         <v>62</v>
       </c>
       <c r="V69" t="n">
-        <v>48436000</v>
+        <v>52963500</v>
       </c>
       <c r="W69" t="n">
-        <v>-2794000</v>
-      </c>
-      <c r="X69" t="n">
-        <v>-3547688</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>52963500</v>
-      </c>
-      <c r="Z69" t="n">
         <v>117314000</v>
       </c>
     </row>
@@ -6550,18 +5925,9 @@
         <v>20</v>
       </c>
       <c r="V70" t="n">
-        <v>-6584383</v>
+        <v>14882700</v>
       </c>
       <c r="W70" t="n">
-        <v>-187908</v>
-      </c>
-      <c r="X70" t="n">
-        <v>-187908</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>14882700</v>
-      </c>
-      <c r="Z70" t="n">
         <v>46732000</v>
       </c>
     </row>
@@ -6638,18 +6004,9 @@
         <v>35</v>
       </c>
       <c r="V71" t="n">
-        <v>-10916000</v>
+        <v>86852800</v>
       </c>
       <c r="W71" t="n">
-        <v>-349000</v>
-      </c>
-      <c r="X71" t="n">
-        <v>-155067</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>86852800</v>
-      </c>
-      <c r="Z71" t="n">
         <v>153257000</v>
       </c>
     </row>
@@ -6726,18 +6083,9 @@
         <v>36</v>
       </c>
       <c r="V72" t="n">
-        <v>-49900000</v>
+        <v>1372999936</v>
       </c>
       <c r="W72" t="n">
-        <v>-138400000</v>
-      </c>
-      <c r="X72" t="n">
-        <v>370608194</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>1372999936</v>
-      </c>
-      <c r="Z72" t="n">
         <v>1277000000</v>
       </c>
     </row>
@@ -6812,18 +6160,9 @@
         <v>0</v>
       </c>
       <c r="V73" t="n">
-        <v>0</v>
+        <v>2601500</v>
       </c>
       <c r="W73" t="n">
-        <v>0</v>
-      </c>
-      <c r="X73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>2601500</v>
-      </c>
-      <c r="Z73" t="n">
         <v>9521000</v>
       </c>
     </row>
@@ -6900,18 +6239,9 @@
         <v>0</v>
       </c>
       <c r="V74" t="n">
-        <v>113323000</v>
+        <v>289680992</v>
       </c>
       <c r="W74" t="n">
-        <v>0</v>
-      </c>
-      <c r="X74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>289680992</v>
-      </c>
-      <c r="Z74" t="n">
         <v>713320000</v>
       </c>
     </row>
@@ -6988,18 +6318,9 @@
         <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>3589000000</v>
+        <v>3982070016</v>
       </c>
       <c r="W75" t="n">
-        <v>-1564000000</v>
-      </c>
-      <c r="X75" t="n">
-        <v>-1569150344</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>3982070016</v>
-      </c>
-      <c r="Z75" t="n">
         <v>14833000000</v>
       </c>
     </row>
@@ -7072,18 +6393,9 @@
         <v>51</v>
       </c>
       <c r="V76" t="n">
-        <v>-1776917</v>
+        <v>72133296</v>
       </c>
       <c r="W76" t="n">
-        <v>-23998</v>
-      </c>
-      <c r="X76" t="n">
-        <v>-82237</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>72133296</v>
-      </c>
-      <c r="Z76" t="n">
         <v>2755000</v>
       </c>
     </row>
@@ -7160,18 +6472,9 @@
         <v>47</v>
       </c>
       <c r="V77" t="n">
-        <v>-921000</v>
+        <v>12500000</v>
       </c>
       <c r="W77" t="n">
-        <v>-52000</v>
-      </c>
-      <c r="X77" t="n">
-        <v>-52000</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>12500000</v>
-      </c>
-      <c r="Z77" t="n">
         <v>12875000</v>
       </c>
     </row>
@@ -7250,18 +6553,9 @@
         <v>2</v>
       </c>
       <c r="V78" t="n">
-        <v>-44735000</v>
+        <v>43447100</v>
       </c>
       <c r="W78" t="n">
-        <v>-2000</v>
-      </c>
-      <c r="X78" t="n">
-        <v>-227744</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>43447100</v>
-      </c>
-      <c r="Z78" t="n">
         <v>46923000</v>
       </c>
     </row>
@@ -7338,18 +6632,9 @@
         <v>6</v>
       </c>
       <c r="V79" t="n">
-        <v>-1665000</v>
+        <v>64338400</v>
       </c>
       <c r="W79" t="n">
-        <v>-218000</v>
-      </c>
-      <c r="X79" t="n">
-        <v>-374919</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>64338400</v>
-      </c>
-      <c r="Z79" t="n">
         <v>28315000</v>
       </c>
     </row>
@@ -7426,18 +6711,9 @@
         <v>2</v>
       </c>
       <c r="V80" t="n">
-        <v>602000000</v>
+        <v>7731709952</v>
       </c>
       <c r="W80" t="n">
-        <v>-1171000000</v>
-      </c>
-      <c r="X80" t="n">
-        <v>-1171000000</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>7731709952</v>
-      </c>
-      <c r="Z80" t="n">
         <v>28015000000</v>
       </c>
     </row>
@@ -7514,18 +6790,9 @@
         <v>6</v>
       </c>
       <c r="V81" t="n">
-        <v>26884000</v>
+        <v>72707696</v>
       </c>
       <c r="W81" t="n">
-        <v>-8262000</v>
-      </c>
-      <c r="X81" t="n">
-        <v>-6335412</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>72707696</v>
-      </c>
-      <c r="Z81" t="n">
         <v>356999000</v>
       </c>
     </row>
@@ -7604,18 +6871,9 @@
         <v>15</v>
       </c>
       <c r="V82" t="n">
-        <v>-5372000</v>
+        <v>14657300</v>
       </c>
       <c r="W82" t="n">
-        <v>-5997000</v>
-      </c>
-      <c r="X82" t="n">
-        <v>-5997000</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>14657300</v>
-      </c>
-      <c r="Z82" t="n">
         <v>78883000</v>
       </c>
     </row>
@@ -7692,18 +6950,9 @@
         <v>4</v>
       </c>
       <c r="V83" t="n">
-        <v>1701000</v>
+        <v>15116500</v>
       </c>
       <c r="W83" t="n">
-        <v>-3209000</v>
-      </c>
-      <c r="X83" t="n">
-        <v>-3209114</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>15116500</v>
-      </c>
-      <c r="Z83" t="n">
         <v>68629000</v>
       </c>
     </row>
@@ -7778,18 +7027,9 @@
         <v>1</v>
       </c>
       <c r="V84" t="n">
-        <v>144000000</v>
+        <v>788670976</v>
       </c>
       <c r="W84" t="n">
-        <v>-35000000</v>
-      </c>
-      <c r="X84" t="n">
-        <v>-35000000</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>788670976</v>
-      </c>
-      <c r="Z84" t="n">
         <v>2193000000</v>
       </c>
     </row>
@@ -7864,18 +7104,9 @@
         <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>-40161033</v>
+        <v>81605296</v>
       </c>
       <c r="W85" t="n">
-        <v>-5549817</v>
-      </c>
-      <c r="X85" t="n">
-        <v>-6489981</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>81605296</v>
-      </c>
-      <c r="Z85" t="n">
         <v>46482000</v>
       </c>
     </row>
@@ -7952,18 +7183,9 @@
         <v>0</v>
       </c>
       <c r="V86" t="n">
-        <v>-24027304</v>
+        <v>17805500</v>
       </c>
       <c r="W86" t="n">
-        <v>-123826</v>
-      </c>
-      <c r="X86" t="n">
-        <v>-123826</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>17805500</v>
-      </c>
-      <c r="Z86" t="n">
         <v>42021000</v>
       </c>
     </row>
@@ -8042,18 +7264,9 @@
         <v>3</v>
       </c>
       <c r="V87" t="n">
-        <v>29691000</v>
+        <v>98553504</v>
       </c>
       <c r="W87" t="n">
-        <v>-335000</v>
-      </c>
-      <c r="X87" t="n">
-        <v>-408544</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>98553504</v>
-      </c>
-      <c r="Z87" t="n">
         <v>375489000</v>
       </c>
     </row>
@@ -8130,18 +7343,9 @@
         <v>12</v>
       </c>
       <c r="V88" t="n">
-        <v>-9106000</v>
+        <v>342304000</v>
       </c>
       <c r="W88" t="n">
-        <v>-159000</v>
-      </c>
-      <c r="X88" t="n">
-        <v>-194660</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>342304000</v>
-      </c>
-      <c r="Z88" t="n">
         <v>12866000</v>
       </c>
     </row>
@@ -8214,18 +7418,9 @@
         <v>38</v>
       </c>
       <c r="V89" t="n">
-        <v>-7665088</v>
+        <v>155944000</v>
       </c>
       <c r="W89" t="n">
-        <v>-174186</v>
-      </c>
-      <c r="X89" t="n">
-        <v>-174186</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>155944000</v>
-      </c>
-      <c r="Z89" t="n">
         <v>10152000</v>
       </c>
     </row>
@@ -8304,18 +7499,9 @@
         <v>42</v>
       </c>
       <c r="V90" t="n">
-        <v>3205000</v>
+        <v>13465900</v>
       </c>
       <c r="W90" t="n">
-        <v>-559000</v>
-      </c>
-      <c r="X90" t="n">
-        <v>-357413</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>13465900</v>
-      </c>
-      <c r="Z90" t="n">
         <v>36089000</v>
       </c>
     </row>
@@ -8394,18 +7580,9 @@
         <v>9</v>
       </c>
       <c r="V91" t="n">
-        <v>3568000</v>
+        <v>16785700</v>
       </c>
       <c r="W91" t="n">
-        <v>-1846000</v>
-      </c>
-      <c r="X91" t="n">
-        <v>-1600994</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>16785700</v>
-      </c>
-      <c r="Z91" t="n">
         <v>53546000</v>
       </c>
     </row>
@@ -8484,18 +7661,9 @@
         <v>6</v>
       </c>
       <c r="V92" t="n">
-        <v>32308000</v>
+        <v>33328600</v>
       </c>
       <c r="W92" t="n">
-        <v>-2124000</v>
-      </c>
-      <c r="X92" t="n">
-        <v>-537274</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>33328600</v>
-      </c>
-      <c r="Z92" t="n">
         <v>84988000</v>
       </c>
     </row>
@@ -8570,18 +7738,9 @@
         <v>15</v>
       </c>
       <c r="V93" t="n">
-        <v>-49398000</v>
+        <v>32114100</v>
       </c>
       <c r="W93" t="n">
-        <v>-23426000</v>
-      </c>
-      <c r="X93" t="n">
-        <v>-69557760</v>
-      </c>
-      <c r="Y93" t="n">
-        <v>32114100</v>
-      </c>
-      <c r="Z93" t="n">
         <v>386196000</v>
       </c>
     </row>
@@ -8658,18 +7817,9 @@
         <v>1</v>
       </c>
       <c r="V94" t="n">
-        <v>-54095000</v>
+        <v>88263696</v>
       </c>
       <c r="W94" t="n">
-        <v>-260000</v>
-      </c>
-      <c r="X94" t="n">
-        <v>-8991749</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>88263696</v>
-      </c>
-      <c r="Z94" t="n">
         <v>103269000</v>
       </c>
     </row>
@@ -8746,18 +7896,9 @@
         <v>42</v>
       </c>
       <c r="V95" t="n">
-        <v>-1302560</v>
+        <v>3902050048</v>
       </c>
       <c r="W95" t="n">
-        <v>-738994</v>
-      </c>
-      <c r="X95" t="n">
-        <v>-738994</v>
-      </c>
-      <c r="Y95" t="n">
-        <v>3902050048</v>
-      </c>
-      <c r="Z95" t="n">
         <v>23022000</v>
       </c>
     </row>
@@ -8836,18 +7977,9 @@
         <v>63</v>
       </c>
       <c r="V96" t="n">
-        <v>-7062829</v>
+        <v>84425600</v>
       </c>
       <c r="W96" t="n">
-        <v>0</v>
-      </c>
-      <c r="X96" t="n">
-        <v>99732</v>
-      </c>
-      <c r="Y96" t="n">
-        <v>84425600</v>
-      </c>
-      <c r="Z96" t="n">
         <v>85270000</v>
       </c>
     </row>
@@ -8912,18 +8044,9 @@
         <v>42</v>
       </c>
       <c r="V97" t="n">
-        <v>-653000</v>
+        <v>40737800</v>
       </c>
       <c r="W97" t="n">
-        <v>0</v>
-      </c>
-      <c r="X97" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y97" t="n">
-        <v>40737800</v>
-      </c>
-      <c r="Z97" t="n">
         <v>11887000</v>
       </c>
     </row>
@@ -9000,18 +8123,9 @@
         <v>25</v>
       </c>
       <c r="V98" t="n">
-        <v>-15804000</v>
+        <v>11911800</v>
       </c>
       <c r="W98" t="n">
-        <v>-108000</v>
-      </c>
-      <c r="X98" t="n">
-        <v>286396</v>
-      </c>
-      <c r="Y98" t="n">
-        <v>11911800</v>
-      </c>
-      <c r="Z98" t="n">
         <v>29065000</v>
       </c>
     </row>
@@ -9088,18 +8202,9 @@
         <v>51</v>
       </c>
       <c r="V99" t="n">
-        <v>2581000</v>
+        <v>52060700</v>
       </c>
       <c r="W99" t="n">
-        <v>-3031000</v>
-      </c>
-      <c r="X99" t="n">
-        <v>-1721201</v>
-      </c>
-      <c r="Y99" t="n">
-        <v>52060700</v>
-      </c>
-      <c r="Z99" t="n">
         <v>66342000</v>
       </c>
     </row>
@@ -9176,18 +8281,9 @@
         <v>48</v>
       </c>
       <c r="V100" t="n">
-        <v>-6027055</v>
+        <v>26187600</v>
       </c>
       <c r="W100" t="n">
-        <v>-27210</v>
-      </c>
-      <c r="X100" t="n">
-        <v>-68235</v>
-      </c>
-      <c r="Y100" t="n">
-        <v>26187600</v>
-      </c>
-      <c r="Z100" t="n">
         <v>54994000</v>
       </c>
     </row>
@@ -9266,18 +8362,9 @@
         <v>8</v>
       </c>
       <c r="V101" t="n">
-        <v>-20496538</v>
+        <v>20244600</v>
       </c>
       <c r="W101" t="n">
-        <v>-4163193</v>
-      </c>
-      <c r="X101" t="n">
-        <v>-4653292</v>
-      </c>
-      <c r="Y101" t="n">
-        <v>20244600</v>
-      </c>
-      <c r="Z101" t="n">
         <v>53041000</v>
       </c>
     </row>
@@ -9348,18 +8435,9 @@
         <v>44</v>
       </c>
       <c r="V102" t="n">
-        <v>-16069</v>
+        <v>280387008</v>
       </c>
       <c r="W102" t="n">
-        <v>0</v>
-      </c>
-      <c r="X102" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y102" t="n">
-        <v>280387008</v>
-      </c>
-      <c r="Z102" t="n">
         <v>3224000</v>
       </c>
     </row>
@@ -9436,18 +8514,9 @@
         <v>36</v>
       </c>
       <c r="V103" t="n">
-        <v>-3519500000</v>
+        <v>1099389952</v>
       </c>
       <c r="W103" t="n">
-        <v>-364300000</v>
-      </c>
-      <c r="X103" t="n">
-        <v>1478278838</v>
-      </c>
-      <c r="Y103" t="n">
-        <v>1099389952</v>
-      </c>
-      <c r="Z103" t="n">
         <v>4547000000</v>
       </c>
     </row>
@@ -9524,18 +8593,9 @@
         <v>33</v>
       </c>
       <c r="V104" t="n">
-        <v>-442053</v>
+        <v>91013600</v>
       </c>
       <c r="W104" t="n">
-        <v>-421393</v>
-      </c>
-      <c r="X104" t="n">
-        <v>-5546149</v>
-      </c>
-      <c r="Y104" t="n">
-        <v>91013600</v>
-      </c>
-      <c r="Z104" t="n">
         <v>233905000</v>
       </c>
     </row>
@@ -9612,18 +8672,9 @@
         <v>0</v>
       </c>
       <c r="V105" t="n">
-        <v>-3519500000</v>
+        <v>2198789888</v>
       </c>
       <c r="W105" t="n">
-        <v>-364300000</v>
-      </c>
-      <c r="X105" t="n">
-        <v>1478278838</v>
-      </c>
-      <c r="Y105" t="n">
-        <v>2198789888</v>
-      </c>
-      <c r="Z105" t="n">
         <v>4683000000</v>
       </c>
     </row>
@@ -9700,18 +8751,9 @@
         <v>8</v>
       </c>
       <c r="V106" t="n">
-        <v>-3320000</v>
+        <v>48029200</v>
       </c>
       <c r="W106" t="n">
-        <v>-663000</v>
-      </c>
-      <c r="X106" t="n">
-        <v>-663000</v>
-      </c>
-      <c r="Y106" t="n">
-        <v>48029200</v>
-      </c>
-      <c r="Z106" t="n">
         <v>49470000</v>
       </c>
     </row>
@@ -9788,18 +8830,9 @@
         <v>80</v>
       </c>
       <c r="V107" t="n">
-        <v>-30353000</v>
+        <v>20080000</v>
       </c>
       <c r="W107" t="n">
-        <v>-907000</v>
-      </c>
-      <c r="X107" t="n">
-        <v>-1274748</v>
-      </c>
-      <c r="Y107" t="n">
-        <v>20080000</v>
-      </c>
-      <c r="Z107" t="n">
         <v>90762000</v>
       </c>
     </row>
@@ -9878,18 +8911,9 @@
         <v>22</v>
       </c>
       <c r="V108" t="n">
-        <v>-1736000</v>
+        <v>32037500</v>
       </c>
       <c r="W108" t="n">
-        <v>-1939000</v>
-      </c>
-      <c r="X108" t="n">
-        <v>1143048</v>
-      </c>
-      <c r="Y108" t="n">
-        <v>32037500</v>
-      </c>
-      <c r="Z108" t="n">
         <v>38765000</v>
       </c>
     </row>
@@ -9964,18 +8988,9 @@
         <v>69</v>
       </c>
       <c r="V109" t="n">
-        <v>191485</v>
+        <v>70224800</v>
       </c>
       <c r="W109" t="n">
-        <v>-51931</v>
-      </c>
-      <c r="X109" t="n">
-        <v>-13525</v>
-      </c>
-      <c r="Y109" t="n">
-        <v>70224800</v>
-      </c>
-      <c r="Z109" t="n">
         <v>6601000</v>
       </c>
     </row>
@@ -10042,5273 +9057,10 @@
         <v>96</v>
       </c>
       <c r="V110" t="n">
-        <v>0</v>
+        <v>5857500</v>
       </c>
       <c r="W110" t="n">
-        <v>0</v>
-      </c>
-      <c r="X110" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y110" t="n">
-        <v>5857500</v>
-      </c>
-      <c r="Z110" t="n">
         <v>2636000</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Software—Application</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Auddia Inc.</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>AUUD</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>32.52M</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>30</v>
-      </c>
-      <c r="H111" t="n">
-        <v>-69</v>
-      </c>
-      <c r="I111" t="n">
-        <v>-30</v>
-      </c>
-      <c r="J111" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="n">
-        <v>0</v>
-      </c>
-      <c r="R111" t="n">
-        <v>0</v>
-      </c>
-      <c r="S111" t="n">
-        <v>2</v>
-      </c>
-      <c r="T111" t="n">
-        <v>2540000</v>
-      </c>
-      <c r="U111" t="n">
-        <v>31</v>
-      </c>
-      <c r="V111" t="n">
-        <v>-3245982</v>
-      </c>
-      <c r="W111" t="n">
-        <v>-30124</v>
-      </c>
-      <c r="X111" t="n">
-        <v>-29071</v>
-      </c>
-      <c r="Y111" t="n">
-        <v>11291800</v>
-      </c>
-      <c r="Z111" t="n">
-        <v>32520000</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Software—Infrastructure</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Cemtrex, Inc.</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>CETXP</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>9.35M</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
-        <v>30</v>
-      </c>
-      <c r="H112" t="n">
-        <v>-40</v>
-      </c>
-      <c r="I112" t="n">
-        <v>37</v>
-      </c>
-      <c r="J112" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>-28</v>
-      </c>
-      <c r="M112" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
-      <c r="O112" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="P112" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>2</v>
-      </c>
-      <c r="R112" t="n">
-        <v>7</v>
-      </c>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-      <c r="T112" t="n">
-        <v>21020000</v>
-      </c>
-      <c r="U112" t="n">
-        <v>0</v>
-      </c>
-      <c r="V112" t="n">
-        <v>-1656847</v>
-      </c>
-      <c r="W112" t="n">
-        <v>-4102986</v>
-      </c>
-      <c r="X112" t="n">
-        <v>676947</v>
-      </c>
-      <c r="Y112" t="n">
-        <v>1486740</v>
-      </c>
-      <c r="Z112" t="n">
-        <v>9350000</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Drug Manufacturers—Specialty &amp; Generic</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Columbia Care Inc.</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>CCHWF</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>1.223B</t>
-        </is>
-      </c>
-      <c r="G113" t="n">
-        <v>30</v>
-      </c>
-      <c r="H113" t="n">
-        <v>-48</v>
-      </c>
-      <c r="I113" t="n">
-        <v>54</v>
-      </c>
-      <c r="J113" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>260</v>
-      </c>
-      <c r="M113" t="n">
-        <v>-0</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P113" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>0</v>
-      </c>
-      <c r="R113" t="n">
-        <v>0</v>
-      </c>
-      <c r="S113" t="n">
-        <v>0</v>
-      </c>
-      <c r="T113" t="n">
-        <v>495180000</v>
-      </c>
-      <c r="U113" t="n">
-        <v>28</v>
-      </c>
-      <c r="V113" t="n">
-        <v>-29049000</v>
-      </c>
-      <c r="W113" t="n">
-        <v>-44780000</v>
-      </c>
-      <c r="X113" t="n">
-        <v>-272063919</v>
-      </c>
-      <c r="Y113" t="n">
-        <v>348070016</v>
-      </c>
-      <c r="Z113" t="n">
-        <v>1223000000</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Communication Equipment</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Aerkomm Inc.</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>AKOM</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>25.153M</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
-        <v>30</v>
-      </c>
-      <c r="H114" t="n">
-        <v>-79</v>
-      </c>
-      <c r="I114" t="n">
-        <v>3</v>
-      </c>
-      <c r="J114" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P114" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S114" t="n">
-        <v>-0</v>
-      </c>
-      <c r="T114" t="n">
-        <v>12580000</v>
-      </c>
-      <c r="U114" t="n">
-        <v>47</v>
-      </c>
-      <c r="V114" t="n">
-        <v>-4088159</v>
-      </c>
-      <c r="W114" t="n">
-        <v>-26303</v>
-      </c>
-      <c r="X114" t="n">
-        <v>-26303</v>
-      </c>
-      <c r="Y114" t="n">
-        <v>9637050</v>
-      </c>
-      <c r="Z114" t="n">
-        <v>25153000</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Real Estate Services</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Coreo AG</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>CORE.DE</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>27.363M</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>30</v>
-      </c>
-      <c r="H115" t="n">
-        <v>-11</v>
-      </c>
-      <c r="I115" t="n">
-        <v>30</v>
-      </c>
-      <c r="J115" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L115" t="n">
-        <v>-32</v>
-      </c>
-      <c r="M115" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P115" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>0</v>
-      </c>
-      <c r="R115" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S115" t="n">
-        <v>-0</v>
-      </c>
-      <c r="T115" t="n">
-        <v>51620000</v>
-      </c>
-      <c r="U115" t="n">
-        <v>29</v>
-      </c>
-      <c r="V115" t="n">
-        <v>-13802000</v>
-      </c>
-      <c r="W115" t="n">
-        <v>0</v>
-      </c>
-      <c r="X115" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y115" t="n">
-        <v>17540500</v>
-      </c>
-      <c r="Z115" t="n">
-        <v>27363000</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Aerospace &amp; Defense</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Butler National Corporation</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>BUKS</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>43.643M</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
-        <v>31</v>
-      </c>
-      <c r="H116" t="n">
-        <v>-18</v>
-      </c>
-      <c r="I116" t="n">
-        <v>38</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>42</v>
-      </c>
-      <c r="M116" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="P116" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>1</v>
-      </c>
-      <c r="R116" t="n">
-        <v>0</v>
-      </c>
-      <c r="S116" t="n">
-        <v>0</v>
-      </c>
-      <c r="T116" t="n">
-        <v>48650000</v>
-      </c>
-      <c r="U116" t="n">
-        <v>47</v>
-      </c>
-      <c r="V116" t="n">
-        <v>13458000</v>
-      </c>
-      <c r="W116" t="n">
-        <v>-6992000</v>
-      </c>
-      <c r="X116" t="n">
-        <v>-6992584</v>
-      </c>
-      <c r="Y116" t="n">
-        <v>74033296</v>
-      </c>
-      <c r="Z116" t="n">
-        <v>43643000</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Specialty Chemicals</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Vystar Corporation</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>VYST</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>26.166M</t>
-        </is>
-      </c>
-      <c r="G117" t="n">
-        <v>31</v>
-      </c>
-      <c r="H117" t="n">
-        <v>-72</v>
-      </c>
-      <c r="I117" t="n">
-        <v>49</v>
-      </c>
-      <c r="J117" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>117</v>
-      </c>
-      <c r="M117" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="n">
-        <v>-0.26</v>
-      </c>
-      <c r="P117" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>1</v>
-      </c>
-      <c r="R117" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S117" t="n">
-        <v>-0</v>
-      </c>
-      <c r="T117" t="n">
-        <v>14520000</v>
-      </c>
-      <c r="U117" t="n">
-        <v>8</v>
-      </c>
-      <c r="V117" t="n">
-        <v>-3234475</v>
-      </c>
-      <c r="W117" t="n">
-        <v>-293258</v>
-      </c>
-      <c r="X117" t="n">
-        <v>-6884346</v>
-      </c>
-      <c r="Y117" t="n">
-        <v>1264070016</v>
-      </c>
-      <c r="Z117" t="n">
-        <v>26166000</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Information Technology Services</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>amalphi ag</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>AMI.DE</t>
-        </is>
-      </c>
-      <c r="E118" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>41.64M</t>
-        </is>
-      </c>
-      <c r="G118" t="n">
-        <v>31</v>
-      </c>
-      <c r="H118" t="n">
-        <v>-33</v>
-      </c>
-      <c r="I118" t="n">
-        <v>46</v>
-      </c>
-      <c r="J118" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>13</v>
-      </c>
-      <c r="M118" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S118" t="n">
-        <v>-0</v>
-      </c>
-      <c r="T118" t="n">
-        <v>1400000</v>
-      </c>
-      <c r="U118" t="n">
-        <v>0</v>
-      </c>
-      <c r="V118" t="n">
-        <v>0</v>
-      </c>
-      <c r="W118" t="n">
-        <v>0</v>
-      </c>
-      <c r="X118" t="n">
-        <v>-743</v>
-      </c>
-      <c r="Y118" t="n">
-        <v>10420900</v>
-      </c>
-      <c r="Z118" t="n">
-        <v>41640000</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Internet Content &amp; Information</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Auto Trader Group plc</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>ATDRY</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>8.529B</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
-        <v>31</v>
-      </c>
-      <c r="H119" t="n">
-        <v>-4</v>
-      </c>
-      <c r="I119" t="n">
-        <v>100</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>-21</v>
-      </c>
-      <c r="M119" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-      <c r="O119" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P119" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>0</v>
-      </c>
-      <c r="R119" t="n">
-        <v>0</v>
-      </c>
-      <c r="S119" t="n">
-        <v>2</v>
-      </c>
-      <c r="T119" t="n">
-        <v>35100000</v>
-      </c>
-      <c r="U119" t="n">
-        <v>0</v>
-      </c>
-      <c r="V119" t="n">
-        <v>124700000</v>
-      </c>
-      <c r="W119" t="n">
-        <v>-1300000</v>
-      </c>
-      <c r="X119" t="n">
-        <v>-1300000</v>
-      </c>
-      <c r="Y119" t="n">
-        <v>3866409984</v>
-      </c>
-      <c r="Z119" t="n">
-        <v>8529000000</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Utilities—Renewable</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Ocean Thermal Energy Corporation</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>CPWR</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>2.803M</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
-        <v>31</v>
-      </c>
-      <c r="H120" t="n">
-        <v>-82</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
-      <c r="O120" t="n">
-        <v>-11.92</v>
-      </c>
-      <c r="P120" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="n">
-        <v>-12</v>
-      </c>
-      <c r="S120" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T120" t="n">
-        <v>8710000</v>
-      </c>
-      <c r="U120" t="n">
-        <v>7</v>
-      </c>
-      <c r="V120" t="n">
-        <v>-716342</v>
-      </c>
-      <c r="W120" t="n">
-        <v>0</v>
-      </c>
-      <c r="X120" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y120" t="n">
-        <v>145176992</v>
-      </c>
-      <c r="Z120" t="n">
-        <v>2803000</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Oil &amp; Gas Integrated</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>John Wood Group PLC</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>WDGJF</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>2.409B</t>
-        </is>
-      </c>
-      <c r="G121" t="n">
-        <v>31</v>
-      </c>
-      <c r="H121" t="n">
-        <v>-26</v>
-      </c>
-      <c r="I121" t="n">
-        <v>11</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>-32</v>
-      </c>
-      <c r="M121" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-      <c r="O121" t="n">
-        <v>-0.85</v>
-      </c>
-      <c r="P121" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>3</v>
-      </c>
-      <c r="R121" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S121" t="n">
-        <v>-0</v>
-      </c>
-      <c r="T121" t="n">
-        <v>2170000000</v>
-      </c>
-      <c r="U121" t="n">
-        <v>1</v>
-      </c>
-      <c r="V121" t="n">
-        <v>303000000</v>
-      </c>
-      <c r="W121" t="n">
-        <v>-15000000</v>
-      </c>
-      <c r="X121" t="n">
-        <v>-15000000</v>
-      </c>
-      <c r="Y121" t="n">
-        <v>688339008</v>
-      </c>
-      <c r="Z121" t="n">
-        <v>2409000000</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Telecom Services</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Vodafone Group Plc</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>VODPF</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>48.877B</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
-        <v>31</v>
-      </c>
-      <c r="H122" t="n">
-        <v>-17</v>
-      </c>
-      <c r="I122" t="n">
-        <v>31</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>-3</v>
-      </c>
-      <c r="M122" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-      <c r="O122" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P122" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q122" t="n">
-        <v>1</v>
-      </c>
-      <c r="R122" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S122" t="n">
-        <v>-0</v>
-      </c>
-      <c r="T122" t="n">
-        <v>72260000000</v>
-      </c>
-      <c r="U122" t="n">
-        <v>0</v>
-      </c>
-      <c r="V122" t="n">
-        <v>17215000000</v>
-      </c>
-      <c r="W122" t="n">
-        <v>-5413000000</v>
-      </c>
-      <c r="X122" t="n">
-        <v>-5413000000</v>
-      </c>
-      <c r="Y122" t="n">
-        <v>27870599168</v>
-      </c>
-      <c r="Z122" t="n">
-        <v>48877000000</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Specialty Industrial Machinery</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>MAX Automation SE</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>MXHN.DE</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>129.621M</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
-        <v>32</v>
-      </c>
-      <c r="H123" t="n">
-        <v>-14</v>
-      </c>
-      <c r="I123" t="n">
-        <v>47</v>
-      </c>
-      <c r="J123" t="n">
-        <v>1</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0</v>
-      </c>
-      <c r="L123" t="n">
-        <v>-36</v>
-      </c>
-      <c r="M123" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="P123" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>2</v>
-      </c>
-      <c r="R123" t="n">
-        <v>0</v>
-      </c>
-      <c r="S123" t="n">
-        <v>0</v>
-      </c>
-      <c r="T123" t="n">
-        <v>133030000</v>
-      </c>
-      <c r="U123" t="n">
-        <v>46</v>
-      </c>
-      <c r="V123" t="n">
-        <v>32027000</v>
-      </c>
-      <c r="W123" t="n">
-        <v>-11752000</v>
-      </c>
-      <c r="X123" t="n">
-        <v>-11751730</v>
-      </c>
-      <c r="Y123" t="n">
-        <v>29459400</v>
-      </c>
-      <c r="Z123" t="n">
-        <v>129621000</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Drug Manufacturers—Specialty &amp; Generic</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Cansortium Inc.</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>CNTMF</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>96.464M</t>
-        </is>
-      </c>
-      <c r="G124" t="n">
-        <v>33</v>
-      </c>
-      <c r="H124" t="n">
-        <v>-46</v>
-      </c>
-      <c r="I124" t="n">
-        <v>57</v>
-      </c>
-      <c r="J124" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L124" t="n">
-        <v>49</v>
-      </c>
-      <c r="M124" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-      <c r="O124" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="P124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>0</v>
-      </c>
-      <c r="R124" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S124" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T124" t="n">
-        <v>75150000</v>
-      </c>
-      <c r="U124" t="n">
-        <v>44</v>
-      </c>
-      <c r="V124" t="n">
-        <v>6902000</v>
-      </c>
-      <c r="W124" t="n">
-        <v>-6670000</v>
-      </c>
-      <c r="X124" t="n">
-        <v>-12254972</v>
-      </c>
-      <c r="Y124" t="n">
-        <v>126218000</v>
-      </c>
-      <c r="Z124" t="n">
-        <v>96464000</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Diagnostics &amp; Research</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>American Bio Medica Corporation</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>ABMC</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>1.759M</t>
-        </is>
-      </c>
-      <c r="G125" t="n">
-        <v>33</v>
-      </c>
-      <c r="H125" t="n">
-        <v>-88</v>
-      </c>
-      <c r="I125" t="n">
-        <v>34</v>
-      </c>
-      <c r="J125" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L125" t="n">
-        <v>-22</v>
-      </c>
-      <c r="M125" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-      <c r="O125" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="P125" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>3</v>
-      </c>
-      <c r="R125" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S125" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T125" t="n">
-        <v>1930000</v>
-      </c>
-      <c r="U125" t="n">
-        <v>30</v>
-      </c>
-      <c r="V125" t="n">
-        <v>-1273000</v>
-      </c>
-      <c r="W125" t="n">
-        <v>-8000</v>
-      </c>
-      <c r="X125" t="n">
-        <v>19946</v>
-      </c>
-      <c r="Y125" t="n">
-        <v>41203500</v>
-      </c>
-      <c r="Z125" t="n">
-        <v>1759000</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Software—Infrastructure</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Cemtrex, Inc.</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>CETX</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>22.46M</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
-        <v>33</v>
-      </c>
-      <c r="H126" t="n">
-        <v>-70</v>
-      </c>
-      <c r="I126" t="n">
-        <v>37</v>
-      </c>
-      <c r="J126" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N126" t="n">
-        <v>1</v>
-      </c>
-      <c r="O126" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P126" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q126" t="n">
-        <v>4</v>
-      </c>
-      <c r="R126" t="n">
-        <v>1</v>
-      </c>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-      <c r="T126" t="n">
-        <v>22210000</v>
-      </c>
-      <c r="U126" t="n">
-        <v>10</v>
-      </c>
-      <c r="V126" t="n">
-        <v>-2227538</v>
-      </c>
-      <c r="W126" t="n">
-        <v>-4541537</v>
-      </c>
-      <c r="X126" t="n">
-        <v>-906550</v>
-      </c>
-      <c r="Y126" t="n">
-        <v>17968200</v>
-      </c>
-      <c r="Z126" t="n">
-        <v>22460000</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Building Products &amp; Equipment</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Armstrong Flooring, Inc.</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>AFI</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>75.684M</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
-        <v>33</v>
-      </c>
-      <c r="H127" t="n">
-        <v>-50</v>
-      </c>
-      <c r="I127" t="n">
-        <v>18</v>
-      </c>
-      <c r="J127" t="n">
-        <v>-3</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L127" t="n">
-        <v>7</v>
-      </c>
-      <c r="M127" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N127" t="n">
-        <v>2</v>
-      </c>
-      <c r="O127" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="P127" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>8</v>
-      </c>
-      <c r="R127" t="n">
-        <v>1</v>
-      </c>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-      <c r="T127" t="n">
-        <v>62900000</v>
-      </c>
-      <c r="U127" t="n">
-        <v>3</v>
-      </c>
-      <c r="V127" t="n">
-        <v>-38900000</v>
-      </c>
-      <c r="W127" t="n">
-        <v>-22300000</v>
-      </c>
-      <c r="X127" t="n">
-        <v>-26719331</v>
-      </c>
-      <c r="Y127" t="n">
-        <v>21685900</v>
-      </c>
-      <c r="Z127" t="n">
-        <v>75684000</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Medical Devices</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>ALR Technologies Inc.</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>ALRT</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>31.843M</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>33</v>
-      </c>
-      <c r="H128" t="n">
-        <v>-31</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
-      <c r="O128" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="P128" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S128" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T128" t="n">
-        <v>17870000</v>
-      </c>
-      <c r="U128" t="n">
-        <v>71</v>
-      </c>
-      <c r="V128" t="n">
-        <v>-1382898</v>
-      </c>
-      <c r="W128" t="n">
-        <v>0</v>
-      </c>
-      <c r="X128" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y128" t="n">
-        <v>530716000</v>
-      </c>
-      <c r="Z128" t="n">
-        <v>31843000</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Software—Infrastructure</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>VirnetX Holding Corp</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>VHC</t>
-        </is>
-      </c>
-      <c r="E129" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>317.632M</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
-        <v>33</v>
-      </c>
-      <c r="H129" t="n">
-        <v>-46</v>
-      </c>
-      <c r="I129" t="n">
-        <v>70</v>
-      </c>
-      <c r="J129" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L129" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M129" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N129" t="n">
-        <v>8</v>
-      </c>
-      <c r="O129" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="P129" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>0</v>
-      </c>
-      <c r="R129" t="n">
-        <v>1</v>
-      </c>
-      <c r="S129" t="n">
-        <v>5852</v>
-      </c>
-      <c r="T129" t="n">
-        <v>31000</v>
-      </c>
-      <c r="U129" t="n">
-        <v>12</v>
-      </c>
-      <c r="V129" t="n">
-        <v>-149196000</v>
-      </c>
-      <c r="W129" t="n">
-        <v>0</v>
-      </c>
-      <c r="X129" t="n">
-        <v>2878258</v>
-      </c>
-      <c r="Y129" t="n">
-        <v>71058600</v>
-      </c>
-      <c r="Z129" t="n">
-        <v>317632000</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>REIT—Retail</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Wheeler Real Estate Investment Trust, Inc.</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>WHLR</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>31.256M</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
-        <v>34</v>
-      </c>
-      <c r="H130" t="n">
-        <v>-56</v>
-      </c>
-      <c r="I130" t="n">
-        <v>70</v>
-      </c>
-      <c r="J130" t="n">
-        <v>2</v>
-      </c>
-      <c r="K130" t="n">
-        <v>1</v>
-      </c>
-      <c r="L130" t="n">
-        <v>-5</v>
-      </c>
-      <c r="M130" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N130" t="n">
-        <v>1</v>
-      </c>
-      <c r="O130" t="n">
-        <v>-1.42</v>
-      </c>
-      <c r="P130" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>2</v>
-      </c>
-      <c r="R130" t="n">
-        <v>1</v>
-      </c>
-      <c r="S130" t="n">
-        <v>0</v>
-      </c>
-      <c r="T130" t="n">
-        <v>351690000</v>
-      </c>
-      <c r="U130" t="n">
-        <v>27</v>
-      </c>
-      <c r="V130" t="n">
-        <v>17296000</v>
-      </c>
-      <c r="W130" t="n">
-        <v>-2907000</v>
-      </c>
-      <c r="X130" t="n">
-        <v>2317620</v>
-      </c>
-      <c r="Y130" t="n">
-        <v>9706740</v>
-      </c>
-      <c r="Z130" t="n">
-        <v>31256000</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Telecom Services</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>11880 Solutions AG</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>TGT.DE</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>39.366M</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
-        <v>34</v>
-      </c>
-      <c r="H131" t="n">
-        <v>-4</v>
-      </c>
-      <c r="I131" t="n">
-        <v>41</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>19</v>
-      </c>
-      <c r="M131" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-      <c r="O131" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="P131" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q131" t="n">
-        <v>1</v>
-      </c>
-      <c r="R131" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S131" t="n">
-        <v>-0</v>
-      </c>
-      <c r="T131" t="n">
-        <v>6560000</v>
-      </c>
-      <c r="U131" t="n">
-        <v>79</v>
-      </c>
-      <c r="V131" t="n">
-        <v>4246000</v>
-      </c>
-      <c r="W131" t="n">
-        <v>-173000</v>
-      </c>
-      <c r="X131" t="n">
-        <v>-360210</v>
-      </c>
-      <c r="Y131" t="n">
-        <v>24915200</v>
-      </c>
-      <c r="Z131" t="n">
-        <v>39366000</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>REIT—Diversified</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>CorEnergy Infrastructure Trust, Inc.</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>CORR</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>65.254M</t>
-        </is>
-      </c>
-      <c r="G132" t="n">
-        <v>34</v>
-      </c>
-      <c r="H132" t="n">
-        <v>-57</v>
-      </c>
-      <c r="I132" t="n">
-        <v>92</v>
-      </c>
-      <c r="J132" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L132" t="n">
-        <v>10</v>
-      </c>
-      <c r="M132" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N132" t="n">
-        <v>9</v>
-      </c>
-      <c r="O132" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P132" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q132" t="n">
-        <v>1</v>
-      </c>
-      <c r="R132" t="n">
-        <v>0</v>
-      </c>
-      <c r="S132" t="n">
-        <v>0</v>
-      </c>
-      <c r="T132" t="n">
-        <v>224240000</v>
-      </c>
-      <c r="U132" t="n">
-        <v>0</v>
-      </c>
-      <c r="V132" t="n">
-        <v>-3865803</v>
-      </c>
-      <c r="W132" t="n">
-        <v>0</v>
-      </c>
-      <c r="X132" t="n">
-        <v>-11808889</v>
-      </c>
-      <c r="Y132" t="n">
-        <v>13651500</v>
-      </c>
-      <c r="Z132" t="n">
-        <v>65254000</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Packaged Foods</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Calyxt, Inc.</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>CLXT</t>
-        </is>
-      </c>
-      <c r="E133" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>156.614M</t>
-        </is>
-      </c>
-      <c r="G133" t="n">
-        <v>35</v>
-      </c>
-      <c r="H133" t="n">
-        <v>-66</v>
-      </c>
-      <c r="I133" t="n">
-        <v>-39</v>
-      </c>
-      <c r="J133" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>415</v>
-      </c>
-      <c r="M133" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N133" t="n">
-        <v>5</v>
-      </c>
-      <c r="O133" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="P133" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q133" t="n">
-        <v>0</v>
-      </c>
-      <c r="R133" t="n">
-        <v>0</v>
-      </c>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-      <c r="T133" t="n">
-        <v>18060000</v>
-      </c>
-      <c r="U133" t="n">
-        <v>66</v>
-      </c>
-      <c r="V133" t="n">
-        <v>-29262000</v>
-      </c>
-      <c r="W133" t="n">
-        <v>-1576000</v>
-      </c>
-      <c r="X133" t="n">
-        <v>-31497465</v>
-      </c>
-      <c r="Y133" t="n">
-        <v>37200500</v>
-      </c>
-      <c r="Z133" t="n">
-        <v>156614000</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Pollution &amp; Treatment Controls</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>BioHiTech Global, Inc.</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>BHTG</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>42.24M</t>
-        </is>
-      </c>
-      <c r="G134" t="n">
-        <v>35</v>
-      </c>
-      <c r="H134" t="n">
-        <v>-63</v>
-      </c>
-      <c r="I134" t="n">
-        <v>27</v>
-      </c>
-      <c r="J134" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L134" t="n">
-        <v>124</v>
-      </c>
-      <c r="M134" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N134" t="n">
-        <v>2</v>
-      </c>
-      <c r="O134" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="P134" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q134" t="n">
-        <v>0</v>
-      </c>
-      <c r="R134" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S134" t="n">
-        <v>-0</v>
-      </c>
-      <c r="T134" t="n">
-        <v>41290000</v>
-      </c>
-      <c r="U134" t="n">
-        <v>21</v>
-      </c>
-      <c r="V134" t="n">
-        <v>-8182254</v>
-      </c>
-      <c r="W134" t="n">
-        <v>-370839</v>
-      </c>
-      <c r="X134" t="n">
-        <v>-12548394</v>
-      </c>
-      <c r="Y134" t="n">
-        <v>28348700</v>
-      </c>
-      <c r="Z134" t="n">
-        <v>42240000</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Specialty Industrial Machinery</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>BrewBilt Manufacturing Inc.</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>BBRW</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>0</v>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>6.953M</t>
-        </is>
-      </c>
-      <c r="G135" t="n">
-        <v>36</v>
-      </c>
-      <c r="H135" t="n">
-        <v>-93</v>
-      </c>
-      <c r="I135" t="n">
-        <v>38</v>
-      </c>
-      <c r="J135" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L135" t="n">
-        <v>-66</v>
-      </c>
-      <c r="M135" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-      <c r="O135" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="n">
-        <v>0</v>
-      </c>
-      <c r="R135" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S135" t="n">
-        <v>-4</v>
-      </c>
-      <c r="T135" t="n">
-        <v>888660</v>
-      </c>
-      <c r="U135" t="n">
-        <v>2</v>
-      </c>
-      <c r="V135" t="n">
-        <v>-601593</v>
-      </c>
-      <c r="W135" t="n">
-        <v>-113290</v>
-      </c>
-      <c r="X135" t="n">
-        <v>-106560</v>
-      </c>
-      <c r="Y135" t="n">
-        <v>4635219968</v>
-      </c>
-      <c r="Z135" t="n">
-        <v>6953000</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Entertainment</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Technicolor SA</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>TCLRY</t>
-        </is>
-      </c>
-      <c r="E136" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>780.159M</t>
-        </is>
-      </c>
-      <c r="G136" t="n">
-        <v>37</v>
-      </c>
-      <c r="H136" t="n">
-        <v>-54</v>
-      </c>
-      <c r="I136" t="n">
-        <v>12</v>
-      </c>
-      <c r="J136" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L136" t="n">
-        <v>-4</v>
-      </c>
-      <c r="M136" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-      <c r="O136" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="P136" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q136" t="n">
-        <v>4</v>
-      </c>
-      <c r="R136" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S136" t="n">
-        <v>-0</v>
-      </c>
-      <c r="T136" t="n">
-        <v>1180000000</v>
-      </c>
-      <c r="U136" t="n">
-        <v>0</v>
-      </c>
-      <c r="V136" t="n">
-        <v>-402000000</v>
-      </c>
-      <c r="W136" t="n">
-        <v>-37000000</v>
-      </c>
-      <c r="X136" t="n">
-        <v>-38400944</v>
-      </c>
-      <c r="Y136" t="n">
-        <v>6367110144</v>
-      </c>
-      <c r="Z136" t="n">
-        <v>780159000</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Medical Devices</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>ADM Tronics Unlimited, Inc.</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>ADMT</t>
-        </is>
-      </c>
-      <c r="E137" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>7.441M</t>
-        </is>
-      </c>
-      <c r="G137" t="n">
-        <v>37</v>
-      </c>
-      <c r="H137" t="n">
-        <v>-39</v>
-      </c>
-      <c r="I137" t="n">
-        <v>46</v>
-      </c>
-      <c r="J137" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L137" t="n">
-        <v>-7</v>
-      </c>
-      <c r="M137" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-      <c r="O137" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="P137" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q137" t="n">
-        <v>0</v>
-      </c>
-      <c r="R137" t="n">
-        <v>0</v>
-      </c>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-      <c r="T137" t="n">
-        <v>1580000</v>
-      </c>
-      <c r="U137" t="n">
-        <v>44</v>
-      </c>
-      <c r="V137" t="n">
-        <v>-769637</v>
-      </c>
-      <c r="W137" t="n">
-        <v>0</v>
-      </c>
-      <c r="X137" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y137" t="n">
-        <v>67588496</v>
-      </c>
-      <c r="Z137" t="n">
-        <v>7441000</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Specialty Business Services</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>IWG plc</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>IWGFF</t>
-        </is>
-      </c>
-      <c r="E138" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>4.536B</t>
-        </is>
-      </c>
-      <c r="G138" t="n">
-        <v>37</v>
-      </c>
-      <c r="H138" t="n">
-        <v>-25</v>
-      </c>
-      <c r="I138" t="n">
-        <v>17</v>
-      </c>
-      <c r="J138" t="n">
-        <v>1</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0</v>
-      </c>
-      <c r="L138" t="n">
-        <v>-19</v>
-      </c>
-      <c r="M138" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-      <c r="O138" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="P138" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q138" t="n">
-        <v>1</v>
-      </c>
-      <c r="R138" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S138" t="n">
-        <v>-0</v>
-      </c>
-      <c r="T138" t="n">
-        <v>6880000000</v>
-      </c>
-      <c r="U138" t="n">
-        <v>29</v>
-      </c>
-      <c r="V138" t="n">
-        <v>416900000</v>
-      </c>
-      <c r="W138" t="n">
-        <v>-213700000</v>
-      </c>
-      <c r="X138" t="n">
-        <v>231077306</v>
-      </c>
-      <c r="Y138" t="n">
-        <v>1007369984</v>
-      </c>
-      <c r="Z138" t="n">
-        <v>4536000000</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Drug Manufacturers—Specialty &amp; Generic</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>cbdMD, Inc.</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>YCBD</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>136.753M</t>
-        </is>
-      </c>
-      <c r="G139" t="n">
-        <v>37</v>
-      </c>
-      <c r="H139" t="n">
-        <v>-65</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L139" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
-        <v>4</v>
-      </c>
-      <c r="O139" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P139" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q139" t="n">
-        <v>0</v>
-      </c>
-      <c r="R139" t="n">
-        <v>0</v>
-      </c>
-      <c r="S139" t="n">
-        <v>4</v>
-      </c>
-      <c r="T139" t="n">
-        <v>6380000</v>
-      </c>
-      <c r="U139" t="n">
-        <v>36</v>
-      </c>
-      <c r="V139" t="n">
-        <v>-10146528</v>
-      </c>
-      <c r="W139" t="n">
-        <v>220079</v>
-      </c>
-      <c r="X139" t="n">
-        <v>220079</v>
-      </c>
-      <c r="Y139" t="n">
-        <v>56980600</v>
-      </c>
-      <c r="Z139" t="n">
-        <v>136753000</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Real Estate—Diversified</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Gaucho Group Holdings, Inc.</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>VINO</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>27.194M</t>
-        </is>
-      </c>
-      <c r="G140" t="n">
-        <v>37</v>
-      </c>
-      <c r="H140" t="n">
-        <v>-83</v>
-      </c>
-      <c r="I140" t="n">
-        <v>25</v>
-      </c>
-      <c r="J140" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>-7</v>
-      </c>
-      <c r="M140" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N140" t="n">
-        <v>0</v>
-      </c>
-      <c r="O140" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="P140" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q140" t="n">
-        <v>0</v>
-      </c>
-      <c r="R140" t="n">
-        <v>0</v>
-      </c>
-      <c r="S140" t="n">
-        <v>10</v>
-      </c>
-      <c r="T140" t="n">
-        <v>529850</v>
-      </c>
-      <c r="U140" t="n">
-        <v>12</v>
-      </c>
-      <c r="V140" t="n">
-        <v>-5958846</v>
-      </c>
-      <c r="W140" t="n">
-        <v>-115521</v>
-      </c>
-      <c r="X140" t="n">
-        <v>-72892</v>
-      </c>
-      <c r="Y140" t="n">
-        <v>7596100</v>
-      </c>
-      <c r="Z140" t="n">
-        <v>27194000</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Drug Manufacturers—Specialty &amp; Generic</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>TILT Holdings Inc.</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>TLLTF</t>
-        </is>
-      </c>
-      <c r="E141" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>152.554M</t>
-        </is>
-      </c>
-      <c r="G141" t="n">
-        <v>38</v>
-      </c>
-      <c r="H141" t="n">
-        <v>-37</v>
-      </c>
-      <c r="I141" t="n">
-        <v>31</v>
-      </c>
-      <c r="J141" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L141" t="n">
-        <v>15</v>
-      </c>
-      <c r="M141" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-      <c r="O141" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="P141" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q141" t="n">
-        <v>1</v>
-      </c>
-      <c r="R141" t="n">
-        <v>0</v>
-      </c>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-      <c r="T141" t="n">
-        <v>87790000</v>
-      </c>
-      <c r="U141" t="n">
-        <v>1</v>
-      </c>
-      <c r="V141" t="n">
-        <v>6011569</v>
-      </c>
-      <c r="W141" t="n">
-        <v>-3096000</v>
-      </c>
-      <c r="X141" t="n">
-        <v>-12781063</v>
-      </c>
-      <c r="Y141" t="n">
-        <v>324652992</v>
-      </c>
-      <c r="Z141" t="n">
-        <v>152554000</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Metal Fabrication</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>TechPrecision Corporation</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>TPCS</t>
-        </is>
-      </c>
-      <c r="E142" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>44.248M</t>
-        </is>
-      </c>
-      <c r="G142" t="n">
-        <v>38</v>
-      </c>
-      <c r="H142" t="n">
-        <v>-14</v>
-      </c>
-      <c r="I142" t="n">
-        <v>23</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0</v>
-      </c>
-      <c r="L142" t="n">
-        <v>-18</v>
-      </c>
-      <c r="M142" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
-      <c r="O142" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="P142" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q142" t="n">
-        <v>0</v>
-      </c>
-      <c r="R142" t="n">
-        <v>0</v>
-      </c>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-      <c r="T142" t="n">
-        <v>3820000</v>
-      </c>
-      <c r="U142" t="n">
-        <v>13</v>
-      </c>
-      <c r="V142" t="n">
-        <v>635850</v>
-      </c>
-      <c r="W142" t="n">
-        <v>-617513</v>
-      </c>
-      <c r="X142" t="n">
-        <v>-617513</v>
-      </c>
-      <c r="Y142" t="n">
-        <v>29498700</v>
-      </c>
-      <c r="Z142" t="n">
-        <v>44248000</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Specialty Chemicals</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Versarien plc</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>VRSRF</t>
-        </is>
-      </c>
-      <c r="E143" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>81.697M</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
-        <v>39</v>
-      </c>
-      <c r="H143" t="n">
-        <v>-73</v>
-      </c>
-      <c r="I143" t="n">
-        <v>26</v>
-      </c>
-      <c r="J143" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L143" t="n">
-        <v>-29</v>
-      </c>
-      <c r="M143" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
-      <c r="O143" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P143" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q143" t="n">
-        <v>0</v>
-      </c>
-      <c r="R143" t="n">
-        <v>0</v>
-      </c>
-      <c r="S143" t="n">
-        <v>4</v>
-      </c>
-      <c r="T143" t="n">
-        <v>1180000</v>
-      </c>
-      <c r="U143" t="n">
-        <v>21</v>
-      </c>
-      <c r="V143" t="n">
-        <v>-1264000</v>
-      </c>
-      <c r="W143" t="n">
-        <v>-161000</v>
-      </c>
-      <c r="X143" t="n">
-        <v>366821</v>
-      </c>
-      <c r="Y143" t="n">
-        <v>194150000</v>
-      </c>
-      <c r="Z143" t="n">
-        <v>81697000</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Restaurants</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Amergent Hospitality Group, Inc.</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>AMHG</t>
-        </is>
-      </c>
-      <c r="E144" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>8.768M</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
-        <v>40</v>
-      </c>
-      <c r="H144" t="n">
-        <v>-33</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L144" t="n">
-        <v>-19</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="n">
-        <v>2</v>
-      </c>
-      <c r="R144" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S144" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T144" t="n">
-        <v>23160000</v>
-      </c>
-      <c r="U144" t="n">
-        <v>4</v>
-      </c>
-      <c r="V144" t="n">
-        <v>-4393832</v>
-      </c>
-      <c r="W144" t="n">
-        <v>-45731</v>
-      </c>
-      <c r="X144" t="n">
-        <v>-45731</v>
-      </c>
-      <c r="Y144" t="n">
-        <v>15656700</v>
-      </c>
-      <c r="Z144" t="n">
-        <v>8768000</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Semiconductor Equipment &amp; Materials</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Trio-Tech International</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>TRT</t>
-        </is>
-      </c>
-      <c r="E145" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>18.117M</t>
-        </is>
-      </c>
-      <c r="G145" t="n">
-        <v>40</v>
-      </c>
-      <c r="H145" t="n">
-        <v>-38</v>
-      </c>
-      <c r="I145" t="n">
-        <v>24</v>
-      </c>
-      <c r="J145" t="n">
-        <v>1</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0</v>
-      </c>
-      <c r="L145" t="n">
-        <v>-5</v>
-      </c>
-      <c r="M145" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N145" t="n">
-        <v>1</v>
-      </c>
-      <c r="O145" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P145" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>2</v>
-      </c>
-      <c r="R145" t="n">
-        <v>1</v>
-      </c>
-      <c r="S145" t="n">
-        <v>3</v>
-      </c>
-      <c r="T145" t="n">
-        <v>4970000</v>
-      </c>
-      <c r="U145" t="n">
-        <v>46</v>
-      </c>
-      <c r="V145" t="n">
-        <v>1815000</v>
-      </c>
-      <c r="W145" t="n">
-        <v>-790000</v>
-      </c>
-      <c r="X145" t="n">
-        <v>456829</v>
-      </c>
-      <c r="Y145" t="n">
-        <v>3913060</v>
-      </c>
-      <c r="Z145" t="n">
-        <v>18117000</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Drug Manufacturers—Specialty &amp; Generic</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>AcelRx Pharmaceuticals, Inc.</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>ACRX</t>
-        </is>
-      </c>
-      <c r="E146" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>125.058M</t>
-        </is>
-      </c>
-      <c r="G146" t="n">
-        <v>40</v>
-      </c>
-      <c r="H146" t="n">
-        <v>-64</v>
-      </c>
-      <c r="I146" t="n">
-        <v>-285</v>
-      </c>
-      <c r="J146" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L146" t="n">
-        <v>32</v>
-      </c>
-      <c r="M146" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N146" t="n">
-        <v>13</v>
-      </c>
-      <c r="O146" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="P146" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q146" t="n">
-        <v>0</v>
-      </c>
-      <c r="R146" t="n">
-        <v>0</v>
-      </c>
-      <c r="S146" t="n">
-        <v>3</v>
-      </c>
-      <c r="T146" t="n">
-        <v>20370000</v>
-      </c>
-      <c r="U146" t="n">
-        <v>2</v>
-      </c>
-      <c r="V146" t="n">
-        <v>-33849000</v>
-      </c>
-      <c r="W146" t="n">
-        <v>-1806000</v>
-      </c>
-      <c r="X146" t="n">
-        <v>-2224905</v>
-      </c>
-      <c r="Y146" t="n">
-        <v>119103000</v>
-      </c>
-      <c r="Z146" t="n">
-        <v>125058000</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Medical Care Facilities</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>SOC Telemed, Inc.</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>TLMD</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>316.172M</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
-        <v>41</v>
-      </c>
-      <c r="H147" t="n">
-        <v>-70</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>0</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
-        <v>5</v>
-      </c>
-      <c r="O147" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="n">
-        <v>0</v>
-      </c>
-      <c r="R147" t="n">
-        <v>0</v>
-      </c>
-      <c r="S147" t="n">
-        <v>0</v>
-      </c>
-      <c r="T147" t="n">
-        <v>94500000</v>
-      </c>
-      <c r="U147" t="n">
-        <v>14</v>
-      </c>
-      <c r="V147" t="n">
-        <v>-27347000</v>
-      </c>
-      <c r="W147" t="n">
-        <v>-2454000</v>
-      </c>
-      <c r="X147" t="n">
-        <v>-2454000</v>
-      </c>
-      <c r="Y147" t="n">
-        <v>99738896</v>
-      </c>
-      <c r="Z147" t="n">
-        <v>316172000</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Drug Manufacturers—Specialty &amp; Generic</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Zynerba Pharmaceuticals, Inc.</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>ZYNE</t>
-        </is>
-      </c>
-      <c r="E148" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>183.569M</t>
-        </is>
-      </c>
-      <c r="G148" t="n">
-        <v>41</v>
-      </c>
-      <c r="H148" t="n">
-        <v>-51</v>
-      </c>
-      <c r="I148" t="n">
-        <v>100</v>
-      </c>
-      <c r="J148" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
-        <v>6</v>
-      </c>
-      <c r="O148" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="P148" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="n">
-        <v>1</v>
-      </c>
-      <c r="S148" t="n">
-        <v>129</v>
-      </c>
-      <c r="T148" t="n">
-        <v>734470</v>
-      </c>
-      <c r="U148" t="n">
-        <v>3</v>
-      </c>
-      <c r="V148" t="n">
-        <v>-38608842</v>
-      </c>
-      <c r="W148" t="n">
-        <v>-307105</v>
-      </c>
-      <c r="X148" t="n">
-        <v>-307105</v>
-      </c>
-      <c r="Y148" t="n">
-        <v>41251500</v>
-      </c>
-      <c r="Z148" t="n">
-        <v>183569000</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Electrical Equipment &amp; Parts</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>US Lighting Group, Inc.</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>USLG</t>
-        </is>
-      </c>
-      <c r="E149" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>16.888M</t>
-        </is>
-      </c>
-      <c r="G149" t="n">
-        <v>41</v>
-      </c>
-      <c r="H149" t="n">
-        <v>-77</v>
-      </c>
-      <c r="I149" t="n">
-        <v>60</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0</v>
-      </c>
-      <c r="L149" t="n">
-        <v>25</v>
-      </c>
-      <c r="M149" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
-      <c r="O149" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="P149" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q149" t="n">
-        <v>0</v>
-      </c>
-      <c r="R149" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S149" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T149" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="U149" t="n">
-        <v>51</v>
-      </c>
-      <c r="V149" t="n">
-        <v>737000</v>
-      </c>
-      <c r="W149" t="n">
-        <v>-677000</v>
-      </c>
-      <c r="X149" t="n">
-        <v>-702020</v>
-      </c>
-      <c r="Y149" t="n">
-        <v>97617696</v>
-      </c>
-      <c r="Z149" t="n">
-        <v>16888000</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Aerospace &amp; Defense</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Chemring Group PLC</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>CMGMF</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>1.316B</t>
-        </is>
-      </c>
-      <c r="G150" t="n">
-        <v>41</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>69</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0</v>
-      </c>
-      <c r="L150" t="n">
-        <v>4</v>
-      </c>
-      <c r="M150" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
-      <c r="O150" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="P150" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q150" t="n">
-        <v>0</v>
-      </c>
-      <c r="R150" t="n">
-        <v>0</v>
-      </c>
-      <c r="S150" t="n">
-        <v>1</v>
-      </c>
-      <c r="T150" t="n">
-        <v>42300000</v>
-      </c>
-      <c r="U150" t="n">
-        <v>1</v>
-      </c>
-      <c r="V150" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="W150" t="n">
-        <v>-31500000</v>
-      </c>
-      <c r="X150" t="n">
-        <v>-35256147</v>
-      </c>
-      <c r="Y150" t="n">
-        <v>282911008</v>
-      </c>
-      <c r="Z150" t="n">
-        <v>1316000000</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Health Information Services</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Streamline Health Solutions, Inc.</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>STRM</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>76.403M</t>
-        </is>
-      </c>
-      <c r="G151" t="n">
-        <v>41</v>
-      </c>
-      <c r="H151" t="n">
-        <v>-53</v>
-      </c>
-      <c r="I151" t="n">
-        <v>58</v>
-      </c>
-      <c r="J151" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L151" t="n">
-        <v>4</v>
-      </c>
-      <c r="M151" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N151" t="n">
-        <v>1</v>
-      </c>
-      <c r="O151" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P151" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q151" t="n">
-        <v>0</v>
-      </c>
-      <c r="R151" t="n">
-        <v>0</v>
-      </c>
-      <c r="S151" t="n">
-        <v>5</v>
-      </c>
-      <c r="T151" t="n">
-        <v>2680000</v>
-      </c>
-      <c r="U151" t="n">
-        <v>15</v>
-      </c>
-      <c r="V151" t="n">
-        <v>-1502000</v>
-      </c>
-      <c r="W151" t="n">
-        <v>-44000</v>
-      </c>
-      <c r="X151" t="n">
-        <v>-47049</v>
-      </c>
-      <c r="Y151" t="n">
-        <v>47392200</v>
-      </c>
-      <c r="Z151" t="n">
-        <v>76403000</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Drug Manufacturers—General</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Vectura Group plc</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>VEGPF</t>
-        </is>
-      </c>
-      <c r="E152" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>1.341B</t>
-        </is>
-      </c>
-      <c r="G152" t="n">
-        <v>41</v>
-      </c>
-      <c r="H152" t="n">
-        <v>-19</v>
-      </c>
-      <c r="I152" t="n">
-        <v>57</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0</v>
-      </c>
-      <c r="L152" t="n">
-        <v>16</v>
-      </c>
-      <c r="M152" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
-      <c r="O152" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="P152" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q152" t="n">
-        <v>0</v>
-      </c>
-      <c r="R152" t="n">
-        <v>0</v>
-      </c>
-      <c r="S152" t="n">
-        <v>52</v>
-      </c>
-      <c r="T152" t="n">
-        <v>4200000</v>
-      </c>
-      <c r="U152" t="n">
-        <v>6</v>
-      </c>
-      <c r="V152" t="n">
-        <v>24800000</v>
-      </c>
-      <c r="W152" t="n">
-        <v>-11800000</v>
-      </c>
-      <c r="X152" t="n">
-        <v>-11800000</v>
-      </c>
-      <c r="Y152" t="n">
-        <v>598620992</v>
-      </c>
-      <c r="Z152" t="n">
-        <v>1341000000</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Coking Coal</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Anglo Pacific Group plc</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>AGPIF</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>395.794M</t>
-        </is>
-      </c>
-      <c r="G153" t="n">
-        <v>42</v>
-      </c>
-      <c r="H153" t="n">
-        <v>-23</v>
-      </c>
-      <c r="I153" t="n">
-        <v>86</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0</v>
-      </c>
-      <c r="L153" t="n">
-        <v>-34</v>
-      </c>
-      <c r="M153" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
-      <c r="O153" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P153" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q153" t="n">
-        <v>0</v>
-      </c>
-      <c r="R153" t="n">
-        <v>0</v>
-      </c>
-      <c r="S153" t="n">
-        <v>1</v>
-      </c>
-      <c r="T153" t="n">
-        <v>45280000</v>
-      </c>
-      <c r="U153" t="n">
-        <v>7</v>
-      </c>
-      <c r="V153" t="n">
-        <v>17507000</v>
-      </c>
-      <c r="W153" t="n">
-        <v>-3534000</v>
-      </c>
-      <c r="X153" t="n">
-        <v>-3534000</v>
-      </c>
-      <c r="Y153" t="n">
-        <v>213480992</v>
-      </c>
-      <c r="Z153" t="n">
-        <v>395794000</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Airlines</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Air France-KLM SA</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>AFRAF</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>3.008B</t>
-        </is>
-      </c>
-      <c r="G154" t="n">
-        <v>43</v>
-      </c>
-      <c r="H154" t="n">
-        <v>-33</v>
-      </c>
-      <c r="I154" t="n">
-        <v>20</v>
-      </c>
-      <c r="J154" t="n">
-        <v>-5</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L154" t="n">
-        <v>-57</v>
-      </c>
-      <c r="M154" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
-      <c r="O154" t="n">
-        <v>-2.65</v>
-      </c>
-      <c r="P154" t="n">
-        <v>-15</v>
-      </c>
-      <c r="Q154" t="n">
-        <v>4</v>
-      </c>
-      <c r="R154" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S154" t="n">
-        <v>-0</v>
-      </c>
-      <c r="T154" t="n">
-        <v>19000000000</v>
-      </c>
-      <c r="U154" t="n">
-        <v>53</v>
-      </c>
-      <c r="V154" t="n">
-        <v>-3990000000</v>
-      </c>
-      <c r="W154" t="n">
-        <v>-1696000000</v>
-      </c>
-      <c r="X154" t="n">
-        <v>505788439</v>
-      </c>
-      <c r="Y154" t="n">
-        <v>641425984</v>
-      </c>
-      <c r="Z154" t="n">
-        <v>3008000000</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Diagnostics &amp; Research</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Biomerica, Inc.</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>BMRA</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>58.066M</t>
-        </is>
-      </c>
-      <c r="G155" t="n">
-        <v>43</v>
-      </c>
-      <c r="H155" t="n">
-        <v>-42</v>
-      </c>
-      <c r="I155" t="n">
-        <v>29</v>
-      </c>
-      <c r="J155" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L155" t="n">
-        <v>208</v>
-      </c>
-      <c r="M155" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N155" t="n">
-        <v>10</v>
-      </c>
-      <c r="O155" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="P155" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q155" t="n">
-        <v>0</v>
-      </c>
-      <c r="R155" t="n">
-        <v>0</v>
-      </c>
-      <c r="S155" t="n">
-        <v>6</v>
-      </c>
-      <c r="T155" t="n">
-        <v>1630000</v>
-      </c>
-      <c r="U155" t="n">
-        <v>17</v>
-      </c>
-      <c r="V155" t="n">
-        <v>-7738651</v>
-      </c>
-      <c r="W155" t="n">
-        <v>-112644</v>
-      </c>
-      <c r="X155" t="n">
-        <v>-395928</v>
-      </c>
-      <c r="Y155" t="n">
-        <v>12302200</v>
-      </c>
-      <c r="Z155" t="n">
-        <v>58066000</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Scientific &amp; Technical Instruments</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Energous Corporation</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>WATT</t>
-        </is>
-      </c>
-      <c r="E156" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>151.752M</t>
-        </is>
-      </c>
-      <c r="G156" t="n">
-        <v>43</v>
-      </c>
-      <c r="H156" t="n">
-        <v>-68</v>
-      </c>
-      <c r="I156" t="n">
-        <v>94</v>
-      </c>
-      <c r="J156" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L156" t="n">
-        <v>136</v>
-      </c>
-      <c r="M156" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N156" t="n">
-        <v>8</v>
-      </c>
-      <c r="O156" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="P156" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q156" t="n">
-        <v>0</v>
-      </c>
-      <c r="R156" t="n">
-        <v>0</v>
-      </c>
-      <c r="S156" t="n">
-        <v>35</v>
-      </c>
-      <c r="T156" t="n">
-        <v>1190000</v>
-      </c>
-      <c r="U156" t="n">
-        <v>3</v>
-      </c>
-      <c r="V156" t="n">
-        <v>-23427984</v>
-      </c>
-      <c r="W156" t="n">
-        <v>-255660</v>
-      </c>
-      <c r="X156" t="n">
-        <v>-522569</v>
-      </c>
-      <c r="Y156" t="n">
-        <v>61939600</v>
-      </c>
-      <c r="Z156" t="n">
-        <v>151752000</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Textile Manufacturing</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Uniroyal Global Engineered Products, Inc.</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>UNIR</t>
-        </is>
-      </c>
-      <c r="E157" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>5.38M</t>
-        </is>
-      </c>
-      <c r="G157" t="n">
-        <v>44</v>
-      </c>
-      <c r="H157" t="n">
-        <v>-52</v>
-      </c>
-      <c r="I157" t="n">
-        <v>17</v>
-      </c>
-      <c r="J157" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L157" t="n">
-        <v>4</v>
-      </c>
-      <c r="M157" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
-      <c r="O157" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="P157" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q157" t="n">
-        <v>11</v>
-      </c>
-      <c r="R157" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S157" t="n">
-        <v>-0</v>
-      </c>
-      <c r="T157" t="n">
-        <v>41840000</v>
-      </c>
-      <c r="U157" t="n">
-        <v>54</v>
-      </c>
-      <c r="V157" t="n">
-        <v>-4951524</v>
-      </c>
-      <c r="W157" t="n">
-        <v>-1113277</v>
-      </c>
-      <c r="X157" t="n">
-        <v>-1300838</v>
-      </c>
-      <c r="Y157" t="n">
-        <v>3412190</v>
-      </c>
-      <c r="Z157" t="n">
-        <v>5380000</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Home Improvement Retail</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Kingfisher plc</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>KFI1.DE</t>
-        </is>
-      </c>
-      <c r="E158" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>8.584B</t>
-        </is>
-      </c>
-      <c r="G158" t="n">
-        <v>45</v>
-      </c>
-      <c r="H158" t="n">
-        <v>-9</v>
-      </c>
-      <c r="I158" t="n">
-        <v>37</v>
-      </c>
-      <c r="J158" t="n">
-        <v>1</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0</v>
-      </c>
-      <c r="L158" t="n">
-        <v>16</v>
-      </c>
-      <c r="M158" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
-      <c r="O158" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="P158" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q158" t="n">
-        <v>1</v>
-      </c>
-      <c r="R158" t="n">
-        <v>0</v>
-      </c>
-      <c r="S158" t="n">
-        <v>0</v>
-      </c>
-      <c r="T158" t="n">
-        <v>2520000000</v>
-      </c>
-      <c r="U158" t="n">
-        <v>0</v>
-      </c>
-      <c r="V158" t="n">
-        <v>1650000000</v>
-      </c>
-      <c r="W158" t="n">
-        <v>-281000000</v>
-      </c>
-      <c r="X158" t="n">
-        <v>-281000000</v>
-      </c>
-      <c r="Y158" t="n">
-        <v>2111239936</v>
-      </c>
-      <c r="Z158" t="n">
-        <v>8584000000</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Drug Manufacturers—Specialty &amp; Generic</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Aquestive Therapeutics, Inc.</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>AQST</t>
-        </is>
-      </c>
-      <c r="E159" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>165.762M</t>
-        </is>
-      </c>
-      <c r="G159" t="n">
-        <v>46</v>
-      </c>
-      <c r="H159" t="n">
-        <v>-52</v>
-      </c>
-      <c r="I159" t="n">
-        <v>68</v>
-      </c>
-      <c r="J159" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L159" t="n">
-        <v>27</v>
-      </c>
-      <c r="M159" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N159" t="n">
-        <v>13</v>
-      </c>
-      <c r="O159" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="P159" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q159" t="n">
-        <v>0</v>
-      </c>
-      <c r="R159" t="n">
-        <v>0</v>
-      </c>
-      <c r="S159" t="n">
-        <v>1</v>
-      </c>
-      <c r="T159" t="n">
-        <v>41480000</v>
-      </c>
-      <c r="U159" t="n">
-        <v>6</v>
-      </c>
-      <c r="V159" t="n">
-        <v>-45919000</v>
-      </c>
-      <c r="W159" t="n">
-        <v>-489000</v>
-      </c>
-      <c r="X159" t="n">
-        <v>-951823</v>
-      </c>
-      <c r="Y159" t="n">
-        <v>36592100</v>
-      </c>
-      <c r="Z159" t="n">
-        <v>165762000</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Software—Application</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Tautachrome, Inc.</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>TTCM</t>
-        </is>
-      </c>
-      <c r="E160" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>30.342M</t>
-        </is>
-      </c>
-      <c r="G160" t="n">
-        <v>46</v>
-      </c>
-      <c r="H160" t="n">
-        <v>-71</v>
-      </c>
-      <c r="I160" t="n">
-        <v>70</v>
-      </c>
-      <c r="J160" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="P160" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q160" t="n">
-        <v>0</v>
-      </c>
-      <c r="R160" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S160" t="n">
-        <v>-4</v>
-      </c>
-      <c r="T160" t="n">
-        <v>1370000</v>
-      </c>
-      <c r="U160" t="n">
-        <v>22</v>
-      </c>
-      <c r="V160" t="n">
-        <v>-820881</v>
-      </c>
-      <c r="W160" t="n">
-        <v>-86894</v>
-      </c>
-      <c r="X160" t="n">
-        <v>-103855</v>
-      </c>
-      <c r="Y160" t="n">
-        <v>4243610112</v>
-      </c>
-      <c r="Z160" t="n">
-        <v>30342000</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Conglomerates</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Titanium Holdings Group, Inc.</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>TTHG</t>
-        </is>
-      </c>
-      <c r="E161" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>1.02M</t>
-        </is>
-      </c>
-      <c r="G161" t="n">
-        <v>47</v>
-      </c>
-      <c r="H161" t="n">
-        <v>-50</v>
-      </c>
-      <c r="I161" t="n">
-        <v>21</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0</v>
-      </c>
-      <c r="L161" t="n">
-        <v>72</v>
-      </c>
-      <c r="M161" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
-      <c r="O161" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="P161" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q161" t="n">
-        <v>4</v>
-      </c>
-      <c r="R161" t="n">
-        <v>3</v>
-      </c>
-      <c r="S161" t="n">
-        <v>5</v>
-      </c>
-      <c r="T161" t="n">
-        <v>568730</v>
-      </c>
-      <c r="U161" t="inlineStr"/>
-      <c r="V161" t="n">
-        <v>1097530</v>
-      </c>
-      <c r="W161" t="n">
-        <v>-22386</v>
-      </c>
-      <c r="X161" t="n">
-        <v>-645343</v>
-      </c>
-      <c r="Y161" t="n">
-        <v>4636473</v>
-      </c>
-      <c r="Z161" t="n">
-        <v>1020000</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>REIT—Mortgage</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Western Asset Mortgage Capital Corporation</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>WMC</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>168.451M</t>
-        </is>
-      </c>
-      <c r="G162" t="n">
-        <v>47</v>
-      </c>
-      <c r="H162" t="n">
-        <v>-34</v>
-      </c>
-      <c r="I162" t="n">
-        <v>100</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0</v>
-      </c>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>-2</v>
-      </c>
-      <c r="N162" t="n">
-        <v>2</v>
-      </c>
-      <c r="O162" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P162" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q162" t="n">
-        <v>1</v>
-      </c>
-      <c r="R162" t="n">
-        <v>16</v>
-      </c>
-      <c r="S162" t="n">
-        <v>1</v>
-      </c>
-      <c r="T162" t="n">
-        <v>2900000000</v>
-      </c>
-      <c r="U162" t="n">
-        <v>1</v>
-      </c>
-      <c r="V162" t="n">
-        <v>24333000</v>
-      </c>
-      <c r="W162" t="n">
-        <v>0</v>
-      </c>
-      <c r="X162" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y162" t="n">
-        <v>60812700</v>
-      </c>
-      <c r="Z162" t="n">
-        <v>168451000</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr"/>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Cairn Energy PLC</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>CRNZF</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>1.735B</t>
-        </is>
-      </c>
-      <c r="G163" t="n">
-        <v>47</v>
-      </c>
-      <c r="H163" t="n">
-        <v>-7</v>
-      </c>
-      <c r="I163" t="n">
-        <v>69</v>
-      </c>
-      <c r="J163" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K163" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L163" t="n">
-        <v>-32</v>
-      </c>
-      <c r="M163" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
-      <c r="O163" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="P163" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q163" t="n">
-        <v>0</v>
-      </c>
-      <c r="R163" t="n">
-        <v>0</v>
-      </c>
-      <c r="S163" t="n">
-        <v>2</v>
-      </c>
-      <c r="T163" t="n">
-        <v>240000000</v>
-      </c>
-      <c r="U163" t="n">
-        <v>1</v>
-      </c>
-      <c r="V163" t="n">
-        <v>257900000</v>
-      </c>
-      <c r="W163" t="n">
-        <v>-274100000</v>
-      </c>
-      <c r="X163" t="n">
-        <v>-274100000</v>
-      </c>
-      <c r="Y163" t="n">
-        <v>580708992</v>
-      </c>
-      <c r="Z163" t="n">
-        <v>1735000000</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Specialty Business Services</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>MS Industrie AG</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>MSAG.DE</t>
-        </is>
-      </c>
-      <c r="E164" t="n">
-        <v>2</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>61.762M</t>
-        </is>
-      </c>
-      <c r="G164" t="n">
-        <v>47</v>
-      </c>
-      <c r="H164" t="n">
-        <v>-15</v>
-      </c>
-      <c r="I164" t="n">
-        <v>46</v>
-      </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0</v>
-      </c>
-      <c r="L164" t="n">
-        <v>-10</v>
-      </c>
-      <c r="M164" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
-      <c r="O164" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P164" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q164" t="n">
-        <v>3</v>
-      </c>
-      <c r="R164" t="n">
-        <v>0</v>
-      </c>
-      <c r="S164" t="n">
-        <v>0</v>
-      </c>
-      <c r="T164" t="n">
-        <v>72210000</v>
-      </c>
-      <c r="U164" t="n">
-        <v>30</v>
-      </c>
-      <c r="V164" t="n">
-        <v>18231000</v>
-      </c>
-      <c r="W164" t="n">
-        <v>-7569000</v>
-      </c>
-      <c r="X164" t="n">
-        <v>-6491437</v>
-      </c>
-      <c r="Y164" t="n">
-        <v>29836800</v>
-      </c>
-      <c r="Z164" t="n">
-        <v>61762000</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Food Distribution</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Ecoark Holdings, Inc.</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>ZEST</t>
-        </is>
-      </c>
-      <c r="E165" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>103.364M</t>
-        </is>
-      </c>
-      <c r="G165" t="n">
-        <v>47</v>
-      </c>
-      <c r="H165" t="n">
-        <v>-74</v>
-      </c>
-      <c r="I165" t="n">
-        <v>10</v>
-      </c>
-      <c r="J165" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
-      <c r="O165" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P165" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>0</v>
-      </c>
-      <c r="R165" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S165" t="n">
-        <v>-3</v>
-      </c>
-      <c r="T165" t="n">
-        <v>3600000</v>
-      </c>
-      <c r="U165" t="n">
-        <v>9</v>
-      </c>
-      <c r="V165" t="n">
-        <v>-7828000</v>
-      </c>
-      <c r="W165" t="n">
-        <v>-3576000</v>
-      </c>
-      <c r="X165" t="n">
-        <v>6906025</v>
-      </c>
-      <c r="Y165" t="n">
-        <v>22470400</v>
-      </c>
-      <c r="Z165" t="n">
-        <v>103364000</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Electronics &amp; Computer Distribution</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>ADDvantage Technologies Group, Inc.</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>AEY</t>
-        </is>
-      </c>
-      <c r="E166" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>33.266M</t>
-        </is>
-      </c>
-      <c r="G166" t="n">
-        <v>49</v>
-      </c>
-      <c r="H166" t="n">
-        <v>-37</v>
-      </c>
-      <c r="I166" t="n">
-        <v>25</v>
-      </c>
-      <c r="J166" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L166" t="n">
-        <v>42</v>
-      </c>
-      <c r="M166" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N166" t="n">
-        <v>1</v>
-      </c>
-      <c r="O166" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="P166" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q166" t="n">
-        <v>2</v>
-      </c>
-      <c r="R166" t="n">
-        <v>0</v>
-      </c>
-      <c r="S166" t="n">
-        <v>0</v>
-      </c>
-      <c r="T166" t="n">
-        <v>10920000</v>
-      </c>
-      <c r="U166" t="n">
-        <v>38</v>
-      </c>
-      <c r="V166" t="n">
-        <v>-8182839</v>
-      </c>
-      <c r="W166" t="n">
-        <v>-321774</v>
-      </c>
-      <c r="X166" t="n">
-        <v>-738975</v>
-      </c>
-      <c r="Y166" t="n">
-        <v>12366600</v>
-      </c>
-      <c r="Z166" t="n">
-        <v>33266000</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Credit Services</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>XS Financial Inc.</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>XSHLF</t>
-        </is>
-      </c>
-      <c r="E167" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>13.747M</t>
-        </is>
-      </c>
-      <c r="G167" t="n">
-        <v>49</v>
-      </c>
-      <c r="H167" t="n">
-        <v>-59</v>
-      </c>
-      <c r="I167" t="n">
-        <v>-84</v>
-      </c>
-      <c r="J167" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L167" t="n">
-        <v>108</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr"/>
-      <c r="O167" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="P167" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q167" t="n">
-        <v>0</v>
-      </c>
-      <c r="R167" t="n">
-        <v>1</v>
-      </c>
-      <c r="S167" t="n">
-        <v>2</v>
-      </c>
-      <c r="T167" t="n">
-        <v>3390000</v>
-      </c>
-      <c r="U167" t="n">
-        <v>0</v>
-      </c>
-      <c r="V167" t="n">
-        <v>-6057178</v>
-      </c>
-      <c r="W167" t="n">
-        <v>-5326</v>
-      </c>
-      <c r="X167" t="n">
-        <v>-222272</v>
-      </c>
-      <c r="Y167" t="n">
-        <v>75036304</v>
-      </c>
-      <c r="Z167" t="n">
-        <v>13747000</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Gambling</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Bravo Multinational Incorporated</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>BRVO</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>4.049M</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
-        <v>49</v>
-      </c>
-      <c r="H168" t="n">
-        <v>-85</v>
-      </c>
-      <c r="I168" t="n">
-        <v>25</v>
-      </c>
-      <c r="J168" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K168" t="n">
-        <v>-0</v>
-      </c>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr"/>
-      <c r="O168" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="P168" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S168" t="n">
-        <v>-8</v>
-      </c>
-      <c r="T168" t="n">
-        <v>132140</v>
-      </c>
-      <c r="U168" t="n">
-        <v>77</v>
-      </c>
-      <c r="V168" t="n">
-        <v>-80239</v>
-      </c>
-      <c r="W168" t="n">
-        <v>0</v>
-      </c>
-      <c r="X168" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y168" t="n">
-        <v>47641000</v>
-      </c>
-      <c r="Z168" t="n">
-        <v>4049000</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Home Improvement Retail</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Kingfisher plc</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>KGFHF</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>10.452B</t>
-        </is>
-      </c>
-      <c r="G169" t="n">
-        <v>49</v>
-      </c>
-      <c r="H169" t="n">
-        <v>-13</v>
-      </c>
-      <c r="I169" t="n">
-        <v>37</v>
-      </c>
-      <c r="J169" t="n">
-        <v>1</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0</v>
-      </c>
-      <c r="L169" t="n">
-        <v>16</v>
-      </c>
-      <c r="M169" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
-      <c r="O169" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="P169" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q169" t="n">
-        <v>1</v>
-      </c>
-      <c r="R169" t="n">
-        <v>0</v>
-      </c>
-      <c r="S169" t="n">
-        <v>0</v>
-      </c>
-      <c r="T169" t="n">
-        <v>2520000000</v>
-      </c>
-      <c r="U169" t="n">
-        <v>0</v>
-      </c>
-      <c r="V169" t="n">
-        <v>1650000000</v>
-      </c>
-      <c r="W169" t="n">
-        <v>-281000000</v>
-      </c>
-      <c r="X169" t="n">
-        <v>-281000000</v>
-      </c>
-      <c r="Y169" t="n">
-        <v>2111449984</v>
-      </c>
-      <c r="Z169" t="n">
-        <v>10452000000</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Utilities—Independent Power Producers</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Centrica plc</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>CPYYF</t>
-        </is>
-      </c>
-      <c r="E170" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>4.353B</t>
-        </is>
-      </c>
-      <c r="G170" t="n">
-        <v>49</v>
-      </c>
-      <c r="H170" t="n">
-        <v>-15</v>
-      </c>
-      <c r="I170" t="n">
-        <v>25</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0</v>
-      </c>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
-      <c r="O170" t="n">
-        <v>-0.24</v>
-      </c>
-      <c r="P170" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q170" t="n">
-        <v>3</v>
-      </c>
-      <c r="R170" t="n">
-        <v>1</v>
-      </c>
-      <c r="S170" t="n">
-        <v>1</v>
-      </c>
-      <c r="T170" t="n">
-        <v>5380000000</v>
-      </c>
-      <c r="U170" t="n">
-        <v>0</v>
-      </c>
-      <c r="V170" t="n">
-        <v>903000000</v>
-      </c>
-      <c r="W170" t="n">
-        <v>-155000000</v>
-      </c>
-      <c r="X170" t="n">
-        <v>129736988</v>
-      </c>
-      <c r="Y170" t="n">
-        <v>5880370176</v>
-      </c>
-      <c r="Z170" t="n">
-        <v>4353000000</v>
       </c>
     </row>
   </sheetData>

--- a/5_df_output_filtered.xlsx
+++ b/5_df_output_filtered.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W110"/>
+  <dimension ref="A1:V110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,11 +541,6 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>sharesOutstanding</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
           <t>marCap</t>
         </is>
       </c>
@@ -623,9 +618,6 @@
         <v>56</v>
       </c>
       <c r="V2" t="n">
-        <v>32311900</v>
-      </c>
-      <c r="W2" t="n">
         <v>1002000</v>
       </c>
     </row>
@@ -694,9 +686,6 @@
         <v>11</v>
       </c>
       <c r="V3" t="n">
-        <v>914252992</v>
-      </c>
-      <c r="W3" t="n">
         <v>1368000000</v>
       </c>
     </row>
@@ -773,9 +762,6 @@
         <v>40</v>
       </c>
       <c r="V4" t="n">
-        <v>173000000</v>
-      </c>
-      <c r="W4" t="n">
         <v>2163000</v>
       </c>
     </row>
@@ -850,9 +836,6 @@
         <v>69</v>
       </c>
       <c r="V5" t="n">
-        <v>246890000</v>
-      </c>
-      <c r="W5" t="n">
         <v>3210000</v>
       </c>
     </row>
@@ -927,9 +910,6 @@
         <v>95</v>
       </c>
       <c r="V6" t="n">
-        <v>5866930</v>
-      </c>
-      <c r="W6" t="n">
         <v>3227000</v>
       </c>
     </row>
@@ -996,9 +976,6 @@
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>11458200</v>
-      </c>
-      <c r="W7" t="n">
         <v>3117000</v>
       </c>
     </row>
@@ -1071,9 +1048,6 @@
         <v>54</v>
       </c>
       <c r="V8" t="n">
-        <v>44573200</v>
-      </c>
-      <c r="W8" t="n">
         <v>126016000</v>
       </c>
     </row>
@@ -1150,9 +1124,6 @@
         <v>37</v>
       </c>
       <c r="V9" t="n">
-        <v>114014000</v>
-      </c>
-      <c r="W9" t="n">
         <v>33064000</v>
       </c>
     </row>
@@ -1225,9 +1196,6 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1304650</v>
-      </c>
-      <c r="W10" t="n">
         <v>2388000</v>
       </c>
     </row>
@@ -1304,9 +1272,6 @@
         <v>27</v>
       </c>
       <c r="V11" t="n">
-        <v>41997000</v>
-      </c>
-      <c r="W11" t="n">
         <v>25400000</v>
       </c>
     </row>
@@ -1383,9 +1348,6 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>3719109888</v>
-      </c>
-      <c r="W12" t="n">
         <v>15377000000</v>
       </c>
     </row>
@@ -1464,9 +1426,6 @@
         <v>36</v>
       </c>
       <c r="V13" t="n">
-        <v>51502100</v>
-      </c>
-      <c r="W13" t="n">
         <v>203433000</v>
       </c>
     </row>
@@ -1543,9 +1502,6 @@
         <v>28</v>
       </c>
       <c r="V14" t="n">
-        <v>7792180</v>
-      </c>
-      <c r="W14" t="n">
         <v>2026000</v>
       </c>
     </row>
@@ -1622,9 +1578,6 @@
         <v>56</v>
       </c>
       <c r="V15" t="n">
-        <v>466320992</v>
-      </c>
-      <c r="W15" t="n">
         <v>148451000</v>
       </c>
     </row>
@@ -1699,9 +1652,6 @@
         <v>20</v>
       </c>
       <c r="V16" t="n">
-        <v>31311200</v>
-      </c>
-      <c r="W16" t="n">
         <v>68885000</v>
       </c>
     </row>
@@ -1768,9 +1718,6 @@
         <v>89</v>
       </c>
       <c r="V17" t="n">
-        <v>8730730</v>
-      </c>
-      <c r="W17" t="n">
         <v>5238000</v>
       </c>
     </row>
@@ -1845,9 +1792,6 @@
         <v>45</v>
       </c>
       <c r="V18" t="n">
-        <v>73473104</v>
-      </c>
-      <c r="W18" t="n">
         <v>4776000</v>
       </c>
     </row>
@@ -1924,9 +1868,6 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>15050000</v>
-      </c>
-      <c r="W19" t="n">
         <v>30401000</v>
       </c>
     </row>
@@ -2005,9 +1946,6 @@
         <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>150108000</v>
-      </c>
-      <c r="W20" t="n">
         <v>138385000</v>
       </c>
     </row>
@@ -2084,9 +2022,6 @@
         <v>88</v>
       </c>
       <c r="V21" t="n">
-        <v>47500000</v>
-      </c>
-      <c r="W21" t="n">
         <v>182400000</v>
       </c>
     </row>
@@ -2163,9 +2098,6 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>165584992</v>
-      </c>
-      <c r="W22" t="n">
         <v>294741000</v>
       </c>
     </row>
@@ -2242,9 +2174,6 @@
         <v>58</v>
       </c>
       <c r="V23" t="n">
-        <v>356743008</v>
-      </c>
-      <c r="W23" t="n">
         <v>1420000000</v>
       </c>
     </row>
@@ -2323,9 +2252,6 @@
         <v>56</v>
       </c>
       <c r="V24" t="n">
-        <v>3255890</v>
-      </c>
-      <c r="W24" t="n">
         <v>9735000</v>
       </c>
     </row>
@@ -2404,9 +2330,6 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>92817504</v>
-      </c>
-      <c r="W25" t="n">
         <v>37582000</v>
       </c>
     </row>
@@ -2485,9 +2408,6 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>10591700</v>
-      </c>
-      <c r="W26" t="n">
         <v>26585000</v>
       </c>
     </row>
@@ -2562,9 +2482,6 @@
         <v>86</v>
       </c>
       <c r="V27" t="n">
-        <v>134688992</v>
-      </c>
-      <c r="W27" t="n">
         <v>12109000</v>
       </c>
     </row>
@@ -2643,9 +2560,6 @@
         <v>43</v>
       </c>
       <c r="V28" t="n">
-        <v>14920700</v>
-      </c>
-      <c r="W28" t="n">
         <v>41927000</v>
       </c>
     </row>
@@ -2722,9 +2636,6 @@
         <v>58</v>
       </c>
       <c r="V29" t="n">
-        <v>94420600</v>
-      </c>
-      <c r="W29" t="n">
         <v>128780000</v>
       </c>
     </row>
@@ -2795,9 +2706,6 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>51472600</v>
-      </c>
-      <c r="W30" t="n">
         <v>87026000</v>
       </c>
     </row>
@@ -2876,9 +2784,6 @@
         <v>8</v>
       </c>
       <c r="V31" t="n">
-        <v>393190016</v>
-      </c>
-      <c r="W31" t="n">
         <v>312586000</v>
       </c>
     </row>
@@ -2955,9 +2860,6 @@
         <v>13</v>
       </c>
       <c r="V32" t="n">
-        <v>8952920</v>
-      </c>
-      <c r="W32" t="n">
         <v>17055000</v>
       </c>
     </row>
@@ -3034,9 +2936,6 @@
         <v>73</v>
       </c>
       <c r="V33" t="n">
-        <v>14447600</v>
-      </c>
-      <c r="W33" t="n">
         <v>11847000</v>
       </c>
     </row>
@@ -3115,9 +3014,6 @@
         <v>19</v>
       </c>
       <c r="V34" t="n">
-        <v>1850400</v>
-      </c>
-      <c r="W34" t="n">
         <v>5422000</v>
       </c>
     </row>
@@ -3196,9 +3092,6 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>13402600</v>
-      </c>
-      <c r="W35" t="n">
         <v>49054000</v>
       </c>
     </row>
@@ -3269,9 +3162,6 @@
         <v>71</v>
       </c>
       <c r="V36" t="n">
-        <v>393743008</v>
-      </c>
-      <c r="W36" t="n">
         <v>15356000</v>
       </c>
     </row>
@@ -3348,9 +3238,6 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>70470200</v>
-      </c>
-      <c r="W37" t="n">
         <v>14024000</v>
       </c>
     </row>
@@ -3427,9 +3314,6 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1613449984</v>
-      </c>
-      <c r="W38" t="n">
         <v>6479000000</v>
       </c>
     </row>
@@ -3500,9 +3384,6 @@
         <v>25</v>
       </c>
       <c r="V39" t="n">
-        <v>863185024</v>
-      </c>
-      <c r="W39" t="n">
         <v>68623000</v>
       </c>
     </row>
@@ -3581,9 +3462,6 @@
         <v>4</v>
       </c>
       <c r="V40" t="n">
-        <v>30893400</v>
-      </c>
-      <c r="W40" t="n">
         <v>139329000</v>
       </c>
     </row>
@@ -3660,9 +3538,6 @@
         <v>67</v>
       </c>
       <c r="V41" t="n">
-        <v>21195400</v>
-      </c>
-      <c r="W41" t="n">
         <v>69945000</v>
       </c>
     </row>
@@ -3741,9 +3616,6 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>23053000</v>
-      </c>
-      <c r="W42" t="n">
         <v>45875000</v>
       </c>
     </row>
@@ -3820,9 +3692,6 @@
         <v>54</v>
       </c>
       <c r="V43" t="n">
-        <v>59388600</v>
-      </c>
-      <c r="W43" t="n">
         <v>13790000</v>
       </c>
     </row>
@@ -3897,9 +3766,6 @@
         <v>42</v>
       </c>
       <c r="V44" t="n">
-        <v>11260200</v>
-      </c>
-      <c r="W44" t="n">
         <v>19931000</v>
       </c>
     </row>
@@ -3974,9 +3840,6 @@
         <v>74</v>
       </c>
       <c r="V45" t="n">
-        <v>111833000</v>
-      </c>
-      <c r="W45" t="n">
         <v>167750000</v>
       </c>
     </row>
@@ -4047,9 +3910,6 @@
         <v>14</v>
       </c>
       <c r="V46" t="n">
-        <v>32180500</v>
-      </c>
-      <c r="W46" t="n">
         <v>99116000</v>
       </c>
     </row>
@@ -4128,9 +3988,6 @@
         <v>9</v>
       </c>
       <c r="V47" t="n">
-        <v>9779150</v>
-      </c>
-      <c r="W47" t="n">
         <v>26085000</v>
       </c>
     </row>
@@ -4209,9 +4066,6 @@
         <v>16</v>
       </c>
       <c r="V48" t="n">
-        <v>93512704</v>
-      </c>
-      <c r="W48" t="n">
         <v>336646000</v>
       </c>
     </row>
@@ -4272,9 +4126,6 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="n">
-        <v>1209990</v>
-      </c>
-      <c r="W49" t="n">
         <v>4356000</v>
       </c>
     </row>
@@ -4349,9 +4200,6 @@
         <v>23</v>
       </c>
       <c r="V50" t="n">
-        <v>71153400</v>
-      </c>
-      <c r="W50" t="n">
         <v>173614000</v>
       </c>
     </row>
@@ -4430,9 +4278,6 @@
         <v>9</v>
       </c>
       <c r="V51" t="n">
-        <v>49487500</v>
-      </c>
-      <c r="W51" t="n">
         <v>53941000</v>
       </c>
     </row>
@@ -4509,9 +4354,6 @@
         <v>50</v>
       </c>
       <c r="V52" t="n">
-        <v>38930800</v>
-      </c>
-      <c r="W52" t="n">
         <v>68129000</v>
       </c>
     </row>
@@ -4588,9 +4430,6 @@
         <v>69</v>
       </c>
       <c r="V53" t="n">
-        <v>2974550016</v>
-      </c>
-      <c r="W53" t="n">
         <v>9037000000</v>
       </c>
     </row>
@@ -4669,9 +4508,6 @@
         <v>34</v>
       </c>
       <c r="V54" t="n">
-        <v>52892700</v>
-      </c>
-      <c r="W54" t="n">
         <v>177191000</v>
       </c>
     </row>
@@ -4750,9 +4586,6 @@
         <v>9</v>
       </c>
       <c r="V55" t="n">
-        <v>5073650</v>
-      </c>
-      <c r="W55" t="n">
         <v>13486000</v>
       </c>
     </row>
@@ -4827,9 +4660,6 @@
         <v>41</v>
       </c>
       <c r="V56" t="n">
-        <v>74336000</v>
-      </c>
-      <c r="W56" t="n">
         <v>151645000</v>
       </c>
     </row>
@@ -4908,9 +4738,6 @@
         <v>10</v>
       </c>
       <c r="V57" t="n">
-        <v>115391000</v>
-      </c>
-      <c r="W57" t="n">
         <v>141931000</v>
       </c>
     </row>
@@ -4989,9 +4816,6 @@
         <v>8</v>
       </c>
       <c r="V58" t="n">
-        <v>7820460</v>
-      </c>
-      <c r="W58" t="n">
         <v>25573000</v>
       </c>
     </row>
@@ -5068,9 +4892,6 @@
         <v>29</v>
       </c>
       <c r="V59" t="n">
-        <v>28731600</v>
-      </c>
-      <c r="W59" t="n">
         <v>10918000</v>
       </c>
     </row>
@@ -5149,9 +4970,6 @@
         <v>4</v>
       </c>
       <c r="V60" t="n">
-        <v>9343670</v>
-      </c>
-      <c r="W60" t="n">
         <v>35693000</v>
       </c>
     </row>
@@ -5230,9 +5048,6 @@
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>5878290</v>
-      </c>
-      <c r="W61" t="n">
         <v>7054000</v>
       </c>
     </row>
@@ -5311,9 +5126,6 @@
         <v>11</v>
       </c>
       <c r="V62" t="n">
-        <v>113500000</v>
-      </c>
-      <c r="W62" t="n">
         <v>59871000</v>
       </c>
     </row>
@@ -5386,9 +5198,6 @@
         <v>51</v>
       </c>
       <c r="V63" t="n">
-        <v>20565600</v>
-      </c>
-      <c r="W63" t="n">
         <v>41337000</v>
       </c>
     </row>
@@ -5467,9 +5276,6 @@
         <v>14</v>
       </c>
       <c r="V64" t="n">
-        <v>19027700</v>
-      </c>
-      <c r="W64" t="n">
         <v>61459000</v>
       </c>
     </row>
@@ -5544,9 +5350,6 @@
         <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>2675549952</v>
-      </c>
-      <c r="W65" t="n">
         <v>3037000000</v>
       </c>
     </row>
@@ -5623,9 +5426,6 @@
         <v>20</v>
       </c>
       <c r="V66" t="n">
-        <v>43058000</v>
-      </c>
-      <c r="W66" t="n">
         <v>15399000</v>
       </c>
     </row>
@@ -5700,9 +5500,6 @@
         <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>1427570048</v>
-      </c>
-      <c r="W67" t="n">
         <v>5353000000</v>
       </c>
     </row>
@@ -5771,9 +5568,6 @@
       </c>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="n">
-        <v>11458200</v>
-      </c>
-      <c r="W68" t="n">
         <v>2567000</v>
       </c>
     </row>
@@ -5852,9 +5646,6 @@
         <v>62</v>
       </c>
       <c r="V69" t="n">
-        <v>52963500</v>
-      </c>
-      <c r="W69" t="n">
         <v>117314000</v>
       </c>
     </row>
@@ -5925,9 +5716,6 @@
         <v>20</v>
       </c>
       <c r="V70" t="n">
-        <v>14882700</v>
-      </c>
-      <c r="W70" t="n">
         <v>46732000</v>
       </c>
     </row>
@@ -6004,9 +5792,6 @@
         <v>35</v>
       </c>
       <c r="V71" t="n">
-        <v>86852800</v>
-      </c>
-      <c r="W71" t="n">
         <v>153257000</v>
       </c>
     </row>
@@ -6083,9 +5868,6 @@
         <v>36</v>
       </c>
       <c r="V72" t="n">
-        <v>1372999936</v>
-      </c>
-      <c r="W72" t="n">
         <v>1277000000</v>
       </c>
     </row>
@@ -6160,9 +5942,6 @@
         <v>0</v>
       </c>
       <c r="V73" t="n">
-        <v>2601500</v>
-      </c>
-      <c r="W73" t="n">
         <v>9521000</v>
       </c>
     </row>
@@ -6239,9 +6018,6 @@
         <v>0</v>
       </c>
       <c r="V74" t="n">
-        <v>289680992</v>
-      </c>
-      <c r="W74" t="n">
         <v>713320000</v>
       </c>
     </row>
@@ -6318,9 +6094,6 @@
         <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>3982070016</v>
-      </c>
-      <c r="W75" t="n">
         <v>14833000000</v>
       </c>
     </row>
@@ -6393,9 +6166,6 @@
         <v>51</v>
       </c>
       <c r="V76" t="n">
-        <v>72133296</v>
-      </c>
-      <c r="W76" t="n">
         <v>2755000</v>
       </c>
     </row>
@@ -6472,9 +6242,6 @@
         <v>47</v>
       </c>
       <c r="V77" t="n">
-        <v>12500000</v>
-      </c>
-      <c r="W77" t="n">
         <v>12875000</v>
       </c>
     </row>
@@ -6553,9 +6320,6 @@
         <v>2</v>
       </c>
       <c r="V78" t="n">
-        <v>43447100</v>
-      </c>
-      <c r="W78" t="n">
         <v>46923000</v>
       </c>
     </row>
@@ -6632,9 +6396,6 @@
         <v>6</v>
       </c>
       <c r="V79" t="n">
-        <v>64338400</v>
-      </c>
-      <c r="W79" t="n">
         <v>28315000</v>
       </c>
     </row>
@@ -6711,9 +6472,6 @@
         <v>2</v>
       </c>
       <c r="V80" t="n">
-        <v>7731709952</v>
-      </c>
-      <c r="W80" t="n">
         <v>28015000000</v>
       </c>
     </row>
@@ -6790,9 +6548,6 @@
         <v>6</v>
       </c>
       <c r="V81" t="n">
-        <v>72707696</v>
-      </c>
-      <c r="W81" t="n">
         <v>356999000</v>
       </c>
     </row>
@@ -6871,9 +6626,6 @@
         <v>15</v>
       </c>
       <c r="V82" t="n">
-        <v>14657300</v>
-      </c>
-      <c r="W82" t="n">
         <v>78883000</v>
       </c>
     </row>
@@ -6950,9 +6702,6 @@
         <v>4</v>
       </c>
       <c r="V83" t="n">
-        <v>15116500</v>
-      </c>
-      <c r="W83" t="n">
         <v>68629000</v>
       </c>
     </row>
@@ -7027,9 +6776,6 @@
         <v>1</v>
       </c>
       <c r="V84" t="n">
-        <v>788670976</v>
-      </c>
-      <c r="W84" t="n">
         <v>2193000000</v>
       </c>
     </row>
@@ -7104,9 +6850,6 @@
         <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>81605296</v>
-      </c>
-      <c r="W85" t="n">
         <v>46482000</v>
       </c>
     </row>
@@ -7183,9 +6926,6 @@
         <v>0</v>
       </c>
       <c r="V86" t="n">
-        <v>17805500</v>
-      </c>
-      <c r="W86" t="n">
         <v>42021000</v>
       </c>
     </row>
@@ -7264,9 +7004,6 @@
         <v>3</v>
       </c>
       <c r="V87" t="n">
-        <v>98553504</v>
-      </c>
-      <c r="W87" t="n">
         <v>375489000</v>
       </c>
     </row>
@@ -7343,9 +7080,6 @@
         <v>12</v>
       </c>
       <c r="V88" t="n">
-        <v>342304000</v>
-      </c>
-      <c r="W88" t="n">
         <v>12866000</v>
       </c>
     </row>
@@ -7418,9 +7152,6 @@
         <v>38</v>
       </c>
       <c r="V89" t="n">
-        <v>155944000</v>
-      </c>
-      <c r="W89" t="n">
         <v>10152000</v>
       </c>
     </row>
@@ -7499,9 +7230,6 @@
         <v>42</v>
       </c>
       <c r="V90" t="n">
-        <v>13465900</v>
-      </c>
-      <c r="W90" t="n">
         <v>36089000</v>
       </c>
     </row>
@@ -7580,9 +7308,6 @@
         <v>9</v>
       </c>
       <c r="V91" t="n">
-        <v>16785700</v>
-      </c>
-      <c r="W91" t="n">
         <v>53546000</v>
       </c>
     </row>
@@ -7661,9 +7386,6 @@
         <v>6</v>
       </c>
       <c r="V92" t="n">
-        <v>33328600</v>
-      </c>
-      <c r="W92" t="n">
         <v>84988000</v>
       </c>
     </row>
@@ -7738,9 +7460,6 @@
         <v>15</v>
       </c>
       <c r="V93" t="n">
-        <v>32114100</v>
-      </c>
-      <c r="W93" t="n">
         <v>386196000</v>
       </c>
     </row>
@@ -7817,9 +7536,6 @@
         <v>1</v>
       </c>
       <c r="V94" t="n">
-        <v>88263696</v>
-      </c>
-      <c r="W94" t="n">
         <v>103269000</v>
       </c>
     </row>
@@ -7896,9 +7612,6 @@
         <v>42</v>
       </c>
       <c r="V95" t="n">
-        <v>3902050048</v>
-      </c>
-      <c r="W95" t="n">
         <v>23022000</v>
       </c>
     </row>
@@ -7977,9 +7690,6 @@
         <v>63</v>
       </c>
       <c r="V96" t="n">
-        <v>84425600</v>
-      </c>
-      <c r="W96" t="n">
         <v>85270000</v>
       </c>
     </row>
@@ -8044,9 +7754,6 @@
         <v>42</v>
       </c>
       <c r="V97" t="n">
-        <v>40737800</v>
-      </c>
-      <c r="W97" t="n">
         <v>11887000</v>
       </c>
     </row>
@@ -8123,9 +7830,6 @@
         <v>25</v>
       </c>
       <c r="V98" t="n">
-        <v>11911800</v>
-      </c>
-      <c r="W98" t="n">
         <v>29065000</v>
       </c>
     </row>
@@ -8202,9 +7906,6 @@
         <v>51</v>
       </c>
       <c r="V99" t="n">
-        <v>52060700</v>
-      </c>
-      <c r="W99" t="n">
         <v>66342000</v>
       </c>
     </row>
@@ -8281,9 +7982,6 @@
         <v>48</v>
       </c>
       <c r="V100" t="n">
-        <v>26187600</v>
-      </c>
-      <c r="W100" t="n">
         <v>54994000</v>
       </c>
     </row>
@@ -8362,9 +8060,6 @@
         <v>8</v>
       </c>
       <c r="V101" t="n">
-        <v>20244600</v>
-      </c>
-      <c r="W101" t="n">
         <v>53041000</v>
       </c>
     </row>
@@ -8435,9 +8130,6 @@
         <v>44</v>
       </c>
       <c r="V102" t="n">
-        <v>280387008</v>
-      </c>
-      <c r="W102" t="n">
         <v>3224000</v>
       </c>
     </row>
@@ -8514,9 +8206,6 @@
         <v>36</v>
       </c>
       <c r="V103" t="n">
-        <v>1099389952</v>
-      </c>
-      <c r="W103" t="n">
         <v>4547000000</v>
       </c>
     </row>
@@ -8593,9 +8282,6 @@
         <v>33</v>
       </c>
       <c r="V104" t="n">
-        <v>91013600</v>
-      </c>
-      <c r="W104" t="n">
         <v>233905000</v>
       </c>
     </row>
@@ -8672,9 +8358,6 @@
         <v>0</v>
       </c>
       <c r="V105" t="n">
-        <v>2198789888</v>
-      </c>
-      <c r="W105" t="n">
         <v>4683000000</v>
       </c>
     </row>
@@ -8751,9 +8434,6 @@
         <v>8</v>
       </c>
       <c r="V106" t="n">
-        <v>48029200</v>
-      </c>
-      <c r="W106" t="n">
         <v>49470000</v>
       </c>
     </row>
@@ -8830,9 +8510,6 @@
         <v>80</v>
       </c>
       <c r="V107" t="n">
-        <v>20080000</v>
-      </c>
-      <c r="W107" t="n">
         <v>90762000</v>
       </c>
     </row>
@@ -8911,9 +8588,6 @@
         <v>22</v>
       </c>
       <c r="V108" t="n">
-        <v>32037500</v>
-      </c>
-      <c r="W108" t="n">
         <v>38765000</v>
       </c>
     </row>
@@ -8988,9 +8662,6 @@
         <v>69</v>
       </c>
       <c r="V109" t="n">
-        <v>70224800</v>
-      </c>
-      <c r="W109" t="n">
         <v>6601000</v>
       </c>
     </row>
@@ -9057,9 +8728,6 @@
         <v>96</v>
       </c>
       <c r="V110" t="n">
-        <v>5857500</v>
-      </c>
-      <c r="W110" t="n">
         <v>2636000</v>
       </c>
     </row>
